--- a/data/nzd0262/nzd0262.xlsx
+++ b/data/nzd0262/nzd0262.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T391"/>
+  <dimension ref="A1:T394"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24244,6 +24244,198 @@
         </is>
       </c>
     </row>
+    <row r="392">
+      <c r="A392" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-01 21:54:11+00:00</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr"/>
+      <c r="C392" t="inlineStr"/>
+      <c r="D392" t="inlineStr"/>
+      <c r="E392" t="n">
+        <v>261.4671428571428</v>
+      </c>
+      <c r="F392" t="n">
+        <v>264.6371428571429</v>
+      </c>
+      <c r="G392" t="n">
+        <v>271.49</v>
+      </c>
+      <c r="H392" t="n">
+        <v>260.5733333333333</v>
+      </c>
+      <c r="I392" t="n">
+        <v>258.6133333333333</v>
+      </c>
+      <c r="J392" t="n">
+        <v>281.5071428571428</v>
+      </c>
+      <c r="K392" t="n">
+        <v>301.32</v>
+      </c>
+      <c r="L392" t="n">
+        <v>323.17</v>
+      </c>
+      <c r="M392" t="n">
+        <v>313.03</v>
+      </c>
+      <c r="N392" t="n">
+        <v>301.57</v>
+      </c>
+      <c r="O392" t="n">
+        <v>300.2466666666667</v>
+      </c>
+      <c r="P392" t="n">
+        <v>305.8922222222222</v>
+      </c>
+      <c r="Q392" t="n">
+        <v>292.94</v>
+      </c>
+      <c r="R392" t="n">
+        <v>306.6122222222222</v>
+      </c>
+      <c r="S392" t="n">
+        <v>322.4671428571428</v>
+      </c>
+      <c r="T392" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-09 21:54:06+00:00</t>
+        </is>
+      </c>
+      <c r="B393" t="n">
+        <v>318.56</v>
+      </c>
+      <c r="C393" t="n">
+        <v>298.49</v>
+      </c>
+      <c r="D393" t="n">
+        <v>281.89</v>
+      </c>
+      <c r="E393" t="n">
+        <v>266.8714285714286</v>
+      </c>
+      <c r="F393" t="n">
+        <v>270.9814285714286</v>
+      </c>
+      <c r="G393" t="n">
+        <v>275.46</v>
+      </c>
+      <c r="H393" t="n">
+        <v>270.91</v>
+      </c>
+      <c r="I393" t="n">
+        <v>253.6600000000001</v>
+      </c>
+      <c r="J393" t="n">
+        <v>278.7214285714285</v>
+      </c>
+      <c r="K393" t="n">
+        <v>297.56</v>
+      </c>
+      <c r="L393" t="n">
+        <v>327.52</v>
+      </c>
+      <c r="M393" t="n">
+        <v>304.94</v>
+      </c>
+      <c r="N393" t="n">
+        <v>285.75</v>
+      </c>
+      <c r="O393" t="n">
+        <v>301.23</v>
+      </c>
+      <c r="P393" t="n">
+        <v>309.79</v>
+      </c>
+      <c r="Q393" t="n">
+        <v>298.91</v>
+      </c>
+      <c r="R393" t="n">
+        <v>315.04</v>
+      </c>
+      <c r="S393" t="n">
+        <v>315.4814285714286</v>
+      </c>
+      <c r="T393" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-25 21:53:55+00:00</t>
+        </is>
+      </c>
+      <c r="B394" t="n">
+        <v>315.11</v>
+      </c>
+      <c r="C394" t="n">
+        <v>296.8644444444445</v>
+      </c>
+      <c r="D394" t="n">
+        <v>289.83</v>
+      </c>
+      <c r="E394" t="n">
+        <v>291.1128571428572</v>
+      </c>
+      <c r="F394" t="n">
+        <v>292.2828571428572</v>
+      </c>
+      <c r="G394" t="n">
+        <v>271.19</v>
+      </c>
+      <c r="H394" t="n">
+        <v>258.5666666666667</v>
+      </c>
+      <c r="I394" t="n">
+        <v>254.9866666666667</v>
+      </c>
+      <c r="J394" t="n">
+        <v>267.2928571428571</v>
+      </c>
+      <c r="K394" t="n">
+        <v>284.11</v>
+      </c>
+      <c r="L394" t="n">
+        <v>318.18</v>
+      </c>
+      <c r="M394" t="n">
+        <v>305.13</v>
+      </c>
+      <c r="N394" t="n">
+        <v>292.99</v>
+      </c>
+      <c r="O394" t="n">
+        <v>301.1933333333333</v>
+      </c>
+      <c r="P394" t="n">
+        <v>300.8544444444445</v>
+      </c>
+      <c r="Q394" t="n">
+        <v>296.48</v>
+      </c>
+      <c r="R394" t="n">
+        <v>317.3944444444444</v>
+      </c>
+      <c r="S394" t="n">
+        <v>319.5328571428572</v>
+      </c>
+      <c r="T394" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -24255,7 +24447,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B392"/>
+  <dimension ref="A1:B395"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28183,6 +28375,36 @@
       </c>
       <c r="B392" t="n">
         <v>0.73</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>2025-02-01 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B393" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>2025-02-09 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B394" t="n">
+        <v>-0.54</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>2025-02-25 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B395" t="n">
+        <v>-0.52</v>
       </c>
     </row>
   </sheetData>
@@ -28351,28 +28573,28 @@
         <v>0.0569</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.3671105233192627</v>
+        <v>-0.2866619907440168</v>
       </c>
       <c r="J2" t="n">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="K2" t="n">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02454715963149823</v>
+        <v>0.01487915610248258</v>
       </c>
       <c r="M2" t="n">
-        <v>13.17423738141834</v>
+        <v>13.36311334125647</v>
       </c>
       <c r="N2" t="n">
-        <v>284.0949978727333</v>
+        <v>293.8282905716893</v>
       </c>
       <c r="O2" t="n">
-        <v>16.85511785401494</v>
+        <v>17.14142031955605</v>
       </c>
       <c r="P2" t="n">
-        <v>289.7215930338735</v>
+        <v>289.0042166701302</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -28428,28 +28650,28 @@
         <v>0.0558</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.4992459367208498</v>
+        <v>-0.4286738302194945</v>
       </c>
       <c r="J3" t="n">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="K3" t="n">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L3" t="n">
-        <v>0.05629927168778381</v>
+        <v>0.04096311076933834</v>
       </c>
       <c r="M3" t="n">
-        <v>11.5103576551874</v>
+        <v>11.69114312374345</v>
       </c>
       <c r="N3" t="n">
-        <v>219.6156101788446</v>
+        <v>229.475035281904</v>
       </c>
       <c r="O3" t="n">
-        <v>14.81943353097022</v>
+        <v>15.14843342665848</v>
       </c>
       <c r="P3" t="n">
-        <v>271.7635226481166</v>
+        <v>271.1259825215329</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -28505,28 +28727,28 @@
         <v>0.0463</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.3398950115289148</v>
+        <v>-0.2872132011013294</v>
       </c>
       <c r="J4" t="n">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="K4" t="n">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0311237545081402</v>
+        <v>0.02194911710061087</v>
       </c>
       <c r="M4" t="n">
-        <v>10.79543994162298</v>
+        <v>10.9290099644454</v>
       </c>
       <c r="N4" t="n">
-        <v>182.8002720923144</v>
+        <v>189.1278175643988</v>
       </c>
       <c r="O4" t="n">
-        <v>13.52036508724207</v>
+        <v>13.75237497904994</v>
       </c>
       <c r="P4" t="n">
-        <v>260.9065617687959</v>
+        <v>260.4141320709624</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -28582,28 +28804,28 @@
         <v>0.0399</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.3089395530854016</v>
+        <v>-0.274990859326862</v>
       </c>
       <c r="J5" t="n">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="K5" t="n">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0237513347436773</v>
+        <v>0.01893892346271331</v>
       </c>
       <c r="M5" t="n">
-        <v>11.42954650287817</v>
+        <v>11.47895179360174</v>
       </c>
       <c r="N5" t="n">
-        <v>199.7269504436806</v>
+        <v>202.1207251770734</v>
       </c>
       <c r="O5" t="n">
-        <v>14.13247856689267</v>
+        <v>14.21691686608153</v>
       </c>
       <c r="P5" t="n">
-        <v>263.0060559786342</v>
+        <v>262.6792212551023</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -28659,28 +28881,28 @@
         <v>0.0378</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.180688434402931</v>
+        <v>-0.1489188220264888</v>
       </c>
       <c r="J6" t="n">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="K6" t="n">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="L6" t="n">
-        <v>0.009124424217818117</v>
+        <v>0.006233522435788008</v>
       </c>
       <c r="M6" t="n">
-        <v>10.84910286938079</v>
+        <v>10.8842380751673</v>
       </c>
       <c r="N6" t="n">
-        <v>184.5220784150861</v>
+        <v>186.4747714175298</v>
       </c>
       <c r="O6" t="n">
-        <v>13.58389040058429</v>
+        <v>13.6555765684767</v>
       </c>
       <c r="P6" t="n">
-        <v>264.1040580594603</v>
+        <v>263.8000511855812</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -28736,28 +28958,28 @@
         <v>0.0273</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.002907210587920456</v>
+        <v>0.01704154187899585</v>
       </c>
       <c r="J7" t="n">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="K7" t="n">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="L7" t="n">
-        <v>1.90276379707921e-06</v>
+        <v>6.65396292442999e-05</v>
       </c>
       <c r="M7" t="n">
-        <v>12.30307198565161</v>
+        <v>12.27577818641408</v>
       </c>
       <c r="N7" t="n">
-        <v>228.5505003363663</v>
+        <v>227.5830293269862</v>
       </c>
       <c r="O7" t="n">
-        <v>15.11788676820826</v>
+        <v>15.08585527330109</v>
       </c>
       <c r="P7" t="n">
-        <v>262.1097945640618</v>
+        <v>261.9195922927973</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -28813,28 +29035,28 @@
         <v>0.0316</v>
       </c>
       <c r="I8" t="n">
-        <v>0.06714404965080763</v>
+        <v>0.07946422838972615</v>
       </c>
       <c r="J8" t="n">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="K8" t="n">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="L8" t="n">
-        <v>0.001459790851534692</v>
+        <v>0.002080212340477949</v>
       </c>
       <c r="M8" t="n">
-        <v>10.07772690473467</v>
+        <v>10.04308728532747</v>
       </c>
       <c r="N8" t="n">
-        <v>158.7392448235749</v>
+        <v>157.9964819573024</v>
       </c>
       <c r="O8" t="n">
-        <v>12.59917635496761</v>
+        <v>12.56966514897284</v>
       </c>
       <c r="P8" t="n">
-        <v>255.0276190942564</v>
+        <v>254.9096318733163</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -28890,28 +29112,28 @@
         <v>0.031</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1494209684666581</v>
+        <v>0.1539790841769551</v>
       </c>
       <c r="J9" t="n">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="K9" t="n">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="L9" t="n">
-        <v>0.00778414965215779</v>
+        <v>0.008437436140875887</v>
       </c>
       <c r="M9" t="n">
-        <v>9.489778984303317</v>
+        <v>9.427965667881002</v>
       </c>
       <c r="N9" t="n">
-        <v>145.8782901043622</v>
+        <v>144.7318433692847</v>
       </c>
       <c r="O9" t="n">
-        <v>12.0780085322193</v>
+        <v>12.0304548280306</v>
       </c>
       <c r="P9" t="n">
-        <v>249.4832418046765</v>
+        <v>249.4395928387151</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -28967,28 +29189,28 @@
         <v>0.0371</v>
       </c>
       <c r="I10" t="n">
-        <v>0.08944343877172502</v>
+        <v>0.1084752043062842</v>
       </c>
       <c r="J10" t="n">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="K10" t="n">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="L10" t="n">
-        <v>0.003158183846601825</v>
+        <v>0.004697959744418778</v>
       </c>
       <c r="M10" t="n">
-        <v>9.005680067017387</v>
+        <v>9.005361596595526</v>
       </c>
       <c r="N10" t="n">
-        <v>128.1417858768161</v>
+        <v>128.2278018682206</v>
       </c>
       <c r="O10" t="n">
-        <v>11.31997287438517</v>
+        <v>11.3237715390333</v>
       </c>
       <c r="P10" t="n">
-        <v>263.3730189937419</v>
+        <v>263.190425231244</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -29044,28 +29266,28 @@
         <v>0.0436</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.001746711542357232</v>
+        <v>0.02017237539678903</v>
       </c>
       <c r="J11" t="n">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="K11" t="n">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="L11" t="n">
-        <v>1.377257666135279e-06</v>
+        <v>0.0001850308269101264</v>
       </c>
       <c r="M11" t="n">
-        <v>8.336680191532702</v>
+        <v>8.363131674736643</v>
       </c>
       <c r="N11" t="n">
-        <v>114.1460585135243</v>
+        <v>114.7927491440919</v>
       </c>
       <c r="O11" t="n">
-        <v>10.68391587918607</v>
+        <v>10.7141378161797</v>
       </c>
       <c r="P11" t="n">
-        <v>282.5415645101743</v>
+        <v>282.3319143082157</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -29121,28 +29343,28 @@
         <v>0.0426</v>
       </c>
       <c r="I12" t="n">
-        <v>0.003764341249036294</v>
+        <v>0.02433735152615065</v>
       </c>
       <c r="J12" t="n">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="K12" t="n">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="L12" t="n">
-        <v>6.367018840380823e-06</v>
+        <v>0.0002691986812625169</v>
       </c>
       <c r="M12" t="n">
-        <v>8.342073585876493</v>
+        <v>8.360018562864623</v>
       </c>
       <c r="N12" t="n">
-        <v>111.1458945572059</v>
+        <v>111.3163460983082</v>
       </c>
       <c r="O12" t="n">
-        <v>10.54257532850517</v>
+        <v>10.5506561927829</v>
       </c>
       <c r="P12" t="n">
-        <v>311.8836464329538</v>
+        <v>311.6826106913257</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -29198,28 +29420,28 @@
         <v>0.0457</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.04866448237192837</v>
+        <v>-0.03484047916509692</v>
       </c>
       <c r="J13" t="n">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="K13" t="n">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="L13" t="n">
-        <v>0.001088641596923901</v>
+        <v>0.0005670552345138358</v>
       </c>
       <c r="M13" t="n">
-        <v>8.294685512370823</v>
+        <v>8.282701457839526</v>
       </c>
       <c r="N13" t="n">
-        <v>109.9259462663946</v>
+        <v>109.5922616888248</v>
       </c>
       <c r="O13" t="n">
-        <v>10.48455751409637</v>
+        <v>10.4686322740282</v>
       </c>
       <c r="P13" t="n">
-        <v>301.3723745011013</v>
+        <v>301.2373043745662</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -29275,28 +29497,28 @@
         <v>0.0453</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.117218626114935</v>
+        <v>-0.1189408504500257</v>
       </c>
       <c r="J14" t="n">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="K14" t="n">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="L14" t="n">
-        <v>0.007890633092136889</v>
+        <v>0.008259993147768596</v>
       </c>
       <c r="M14" t="n">
-        <v>7.376672545216866</v>
+        <v>7.364253265804847</v>
       </c>
       <c r="N14" t="n">
-        <v>88.53510654649182</v>
+        <v>88.15919339661883</v>
       </c>
       <c r="O14" t="n">
-        <v>9.409309568001884</v>
+        <v>9.389312722271999</v>
       </c>
       <c r="P14" t="n">
-        <v>297.3842278392513</v>
+        <v>297.4008306629412</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -29352,28 +29574,28 @@
         <v>0.0672</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.2681518120882428</v>
+        <v>-0.2693812791675466</v>
       </c>
       <c r="J15" t="n">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="K15" t="n">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="L15" t="n">
-        <v>0.05878026877882592</v>
+        <v>0.06047961575711924</v>
       </c>
       <c r="M15" t="n">
-        <v>5.963953403066832</v>
+        <v>5.919956850517992</v>
       </c>
       <c r="N15" t="n">
-        <v>59.63323999019474</v>
+        <v>59.1417653487354</v>
       </c>
       <c r="O15" t="n">
-        <v>7.722256146372946</v>
+        <v>7.690368349353326</v>
       </c>
       <c r="P15" t="n">
-        <v>308.4224604554913</v>
+        <v>308.4341722108483</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -29429,28 +29651,28 @@
         <v>0.0505</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.3505230659710725</v>
+        <v>-0.3517270495390044</v>
       </c>
       <c r="J16" t="n">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="K16" t="n">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="L16" t="n">
-        <v>0.08631839893345716</v>
+        <v>0.08845505005338994</v>
       </c>
       <c r="M16" t="n">
-        <v>6.2043089537187</v>
+        <v>6.177817341962892</v>
       </c>
       <c r="N16" t="n">
-        <v>67.42203418393377</v>
+        <v>66.95912592525362</v>
       </c>
       <c r="O16" t="n">
-        <v>8.211092143188614</v>
+        <v>8.182855609458938</v>
       </c>
       <c r="P16" t="n">
-        <v>315.1123105535514</v>
+        <v>315.1238836930473</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -29506,28 +29728,28 @@
         <v>0.0557</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.3385699461935074</v>
+        <v>-0.3487241634081579</v>
       </c>
       <c r="J17" t="n">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="K17" t="n">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="L17" t="n">
-        <v>0.08216062879100161</v>
+        <v>0.0880805852072708</v>
       </c>
       <c r="M17" t="n">
-        <v>6.409990462298794</v>
+        <v>6.400802920046893</v>
       </c>
       <c r="N17" t="n">
-        <v>65.28863716038111</v>
+        <v>65.03730321420073</v>
       </c>
       <c r="O17" t="n">
-        <v>8.080138436956455</v>
+        <v>8.064570863610831</v>
       </c>
       <c r="P17" t="n">
-        <v>310.2579987626567</v>
+        <v>310.3558082877906</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -29583,28 +29805,28 @@
         <v>0.0475</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.3067115256344257</v>
+        <v>-0.3011597415221608</v>
       </c>
       <c r="J18" t="n">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="K18" t="n">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="L18" t="n">
-        <v>0.07120712914723804</v>
+        <v>0.06999074009534989</v>
       </c>
       <c r="M18" t="n">
-        <v>6.192339219645315</v>
+        <v>6.184180868378911</v>
       </c>
       <c r="N18" t="n">
-        <v>62.25661668665654</v>
+        <v>61.98566379401101</v>
       </c>
       <c r="O18" t="n">
-        <v>7.890286223367093</v>
+        <v>7.873097471390216</v>
       </c>
       <c r="P18" t="n">
-        <v>317.9093469953249</v>
+        <v>317.8560650965474</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -29660,28 +29882,28 @@
         <v>0.0408</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.2346444011855427</v>
+        <v>-0.223907039392555</v>
       </c>
       <c r="J19" t="n">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="K19" t="n">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="L19" t="n">
-        <v>0.04422035268672153</v>
+        <v>0.0411204987042596</v>
       </c>
       <c r="M19" t="n">
-        <v>6.183918990683276</v>
+        <v>6.171437332768763</v>
       </c>
       <c r="N19" t="n">
-        <v>61.28974901960035</v>
+        <v>61.06525909477922</v>
       </c>
       <c r="O19" t="n">
-        <v>7.82877698108717</v>
+        <v>7.814426344574452</v>
       </c>
       <c r="P19" t="n">
-        <v>319.7508918053462</v>
+        <v>319.6482614797574</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -29718,7 +29940,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T391"/>
+  <dimension ref="A1:T394"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65540,6 +65762,300 @@
         </is>
       </c>
     </row>
+    <row r="392">
+      <c r="A392" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-01 21:54:11+00:00</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr"/>
+      <c r="C392" t="inlineStr"/>
+      <c r="D392" t="inlineStr"/>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t>-38.529441951320756,178.28680083250558</t>
+        </is>
+      </c>
+      <c r="F392" t="inlineStr">
+        <is>
+          <t>-38.52987684601166,178.2860959578191</t>
+        </is>
+      </c>
+      <c r="G392" t="inlineStr">
+        <is>
+          <t>-38.53036948230206,178.28536610088568</t>
+        </is>
+      </c>
+      <c r="H392" t="inlineStr">
+        <is>
+          <t>-38.530870791897456,178.28451902983568</t>
+        </is>
+      </c>
+      <c r="I392" t="inlineStr">
+        <is>
+          <t>-38.5314865630298,178.28390960861793</t>
+        </is>
+      </c>
+      <c r="J392" t="inlineStr">
+        <is>
+          <t>-38.53216829462035,178.28359485843774</t>
+        </is>
+      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>-38.532834501096275,178.2832509129744</t>
+        </is>
+      </c>
+      <c r="L392" t="inlineStr">
+        <is>
+          <t>-38.53356807015353,178.2828810634072</t>
+        </is>
+      </c>
+      <c r="M392" t="inlineStr">
+        <is>
+          <t>-38.534310005554396,178.28257311440814</t>
+        </is>
+      </c>
+      <c r="N392" t="inlineStr">
+        <is>
+          <t>-38.534992795019754,178.28229218591304</t>
+        </is>
+      </c>
+      <c r="O392" t="inlineStr">
+        <is>
+          <t>-38.53567679690828,178.2821287015232</t>
+        </is>
+      </c>
+      <c r="P392" t="inlineStr">
+        <is>
+          <t>-38.53636197744176,178.28201971741785</t>
+        </is>
+      </c>
+      <c r="Q392" t="inlineStr">
+        <is>
+          <t>-38.53702293642136,178.28168162479005</t>
+        </is>
+      </c>
+      <c r="R392" t="inlineStr">
+        <is>
+          <t>-38.53773099198987,178.2816420962843</t>
+        </is>
+      </c>
+      <c r="S392" t="inlineStr">
+        <is>
+          <t>-38.538442534936294,178.28162715110653</t>
+        </is>
+      </c>
+      <c r="T392" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-09 21:54:06+00:00</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>-38.52860804515986,178.28938622297392</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>-38.52887867296881,178.2885170814467</t>
+        </is>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>-38.529173825307076,178.2876724672458</t>
+        </is>
+      </c>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>-38.529480152786654,178.28683903127234</t>
+        </is>
+      </c>
+      <c r="F393" t="inlineStr">
+        <is>
+          <t>-38.52992169227641,178.2861408007755</t>
+        </is>
+      </c>
+      <c r="G393" t="inlineStr">
+        <is>
+          <t>-38.530396010040675,178.28539648610368</t>
+        </is>
+      </c>
+      <c r="H393" t="inlineStr">
+        <is>
+          <t>-38.530929372178804,178.28461084111788</t>
+        </is>
+      </c>
+      <c r="I393" t="inlineStr">
+        <is>
+          <t>-38.53146160887334,178.2838626660158</t>
+        </is>
+      </c>
+      <c r="J393" t="inlineStr">
+        <is>
+          <t>-38.53215426059007,178.28356845805163</t>
+        </is>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>-38.53281555871694,178.28321527890841</t>
+        </is>
+      </c>
+      <c r="L393" t="inlineStr">
+        <is>
+          <t>-38.53358226168231,178.28292744839794</t>
+        </is>
+      </c>
+      <c r="M393" t="inlineStr">
+        <is>
+          <t>-38.53429996741989,178.28248142121979</t>
+        </is>
+      </c>
+      <c r="N393" t="inlineStr">
+        <is>
+          <t>-38.53497437627704,178.28211266996223</t>
+        </is>
+      </c>
+      <c r="O393" t="inlineStr">
+        <is>
+          <t>-38.53567806893921,178.28213983756748</t>
+        </is>
+      </c>
+      <c r="P393" t="inlineStr">
+        <is>
+          <t>-38.53636787011326,178.28206368826486</t>
+        </is>
+      </c>
+      <c r="Q393" t="inlineStr">
+        <is>
+          <t>-38.53703249300237,178.28174885415146</t>
+        </is>
+      </c>
+      <c r="R393" t="inlineStr">
+        <is>
+          <t>-38.53774448281411,178.28173700413194</t>
+        </is>
+      </c>
+      <c r="S393" t="inlineStr">
+        <is>
+          <t>-38.53843135252444,178.28154848200992</t>
+        </is>
+      </c>
+      <c r="T393" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-25 21:53:55+00:00</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>-38.52858365844548,178.28936183732617</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>-38.52886718247809,178.28850559156677</t>
+        </is>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>-38.52922995072451,178.28772858926538</t>
+        </is>
+      </c>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>-38.52965150884021,178.2870103759206</t>
+        </is>
+      </c>
+      <c r="F394" t="inlineStr">
+        <is>
+          <t>-38.53007226691211,178.2862913648785</t>
+        </is>
+      </c>
+      <c r="G394" t="inlineStr">
+        <is>
+          <t>-38.53036747768667,178.2853638047744</t>
+        </is>
+      </c>
+      <c r="H394" t="inlineStr">
+        <is>
+          <t>-38.53085941964355,178.2845012064435</t>
+        </is>
+      </c>
+      <c r="I394" t="inlineStr">
+        <is>
+          <t>-38.53146829242474,178.2838752387958</t>
+        </is>
+      </c>
+      <c r="J394" t="inlineStr">
+        <is>
+          <t>-38.53209668501072,178.28346014887944</t>
+        </is>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>-38.53274779930739,178.28308781145347</t>
+        </is>
+      </c>
+      <c r="L394" t="inlineStr">
+        <is>
+          <t>-38.5335517906513,178.28282785397835</t>
+        </is>
+      </c>
+      <c r="M394" t="inlineStr">
+        <is>
+          <t>-38.53430020317419,178.28248357470605</t>
+        </is>
+      </c>
+      <c r="N394" t="inlineStr">
+        <is>
+          <t>-38.53498280562302,178.28219482516857</t>
+        </is>
+      </c>
+      <c r="O394" t="inlineStr">
+        <is>
+          <t>-38.53567802150758,178.28213942232517</t>
+        </is>
+      </c>
+      <c r="P394" t="inlineStr">
+        <is>
+          <t>-38.53635436128963,178.28196288623414</t>
+        </is>
+      </c>
+      <c r="Q394" t="inlineStr">
+        <is>
+          <t>-38.53702860314258,178.2817214894349</t>
+        </is>
+      </c>
+      <c r="R394" t="inlineStr">
+        <is>
+          <t>-38.53774825169326,178.2817635182738</t>
+        </is>
+      </c>
+      <c r="S394" t="inlineStr">
+        <is>
+          <t>-38.538437837872635,178.28159410686615</t>
+        </is>
+      </c>
+      <c r="T394" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0262/nzd0262.xlsx
+++ b/data/nzd0262/nzd0262.xlsx
@@ -28418,7 +28418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W19"/>
+  <dimension ref="A1:X19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28509,35 +28509,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -28596,27 +28601,28 @@
       <c r="P2" t="n">
         <v>289.0042166701302</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (178.28713461546764 -38.52635624110964, 178.29358714812372 -38.532808807001345)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>178.2871346154676</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-38.52635624110964</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>178.2935871481237</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-38.53280880700135</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>178.2903608817957</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-38.52958252405549</v>
       </c>
     </row>
@@ -28673,27 +28679,28 @@
       <c r="P3" t="n">
         <v>271.1259825215329</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (178.28640733384978 -38.52676872666492, 178.29285985505743 -38.53322130769533)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>178.2864073338498</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-38.52676872666492</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>178.2928598550574</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-38.53322130769533</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>178.2896335944536</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-38.52999501718013</v>
       </c>
     </row>
@@ -28750,27 +28757,28 @@
       <c r="P4" t="n">
         <v>260.4141320709624</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (178.28568005223235 -38.52718120985567, 178.29213256199014 -38.533633806024525)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>178.2856800522324</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-38.52718120985567</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>178.2921325619901</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-38.53363380602453</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>178.2889063071112</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-38.5304075079401</v>
       </c>
     </row>
@@ -28827,27 +28835,28 @@
       <c r="P5" t="n">
         <v>262.6792212551023</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (178.28495277061552 -38.52759369068187, 178.29140526892186 -38.53404630198895)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>178.2849527706155</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-38.52759369068187</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>178.2914052689219</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-38.53404630198895</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>178.2881790197687</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-38.53081999633541</v>
       </c>
     </row>
@@ -28904,27 +28913,28 @@
       <c r="P6" t="n">
         <v>263.8000511855812</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (178.28422548899923 -38.528006169143545, 178.2906779758524 -38.53445879558863)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>178.2842254889992</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-38.52800616914354</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>178.2906779758524</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-38.53445879558863</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>178.2874517324258</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-38.53123248236609</v>
       </c>
     </row>
@@ -28981,27 +28991,28 @@
       <c r="P7" t="n">
         <v>261.9195922927973</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (178.28328824961233 -38.52855534979008, 178.29027580209276 -38.534655503763446)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>178.2832882496123</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-38.52855534979008</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>178.2902758020928</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-38.53465550376345</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>178.2867820258525</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-38.53160542677676</v>
       </c>
     </row>
@@ -29058,27 +29069,28 @@
       <c r="P8" t="n">
         <v>254.9096318733163</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (178.2822046405626 -38.52939403500545, 178.29031538850015 -38.534568817192124)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>178.2822046405626</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-38.52939403500545</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>178.2903153885001</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-38.53456881719212</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>178.2862600145314</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-38.53198142609879</v>
       </c>
     </row>
@@ -29135,27 +29147,28 @@
       <c r="P9" t="n">
         <v>249.4395928387151</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (178.28145877925775 -38.530183679060315, 178.2901137263353 -38.53478426749157)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>178.2814587792577</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-38.53018367906031</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>178.2901137263353</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-38.53478426749157</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>178.2857862527965</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-38.53248397327594</v>
       </c>
     </row>
@@ -29212,27 +29225,28 @@
       <c r="P10" t="n">
         <v>263.190425231244</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (178.2809270481236 -38.53075006783351, 178.28958202455388 -38.535350667611695)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>178.2809270481236</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-38.53075006783351</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>178.2895820245539</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-38.5353506676117</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>178.2852545363388</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-38.5330503677226</v>
       </c>
     </row>
@@ -29289,27 +29303,28 @@
       <c r="P11" t="n">
         <v>282.3319143082157</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>LINESTRING (178.28039531698965 -38.53131645214779, 178.28905032277223 -38.535917063273246)</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>178.2803953169897</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>-38.53131645214779</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>178.2890503227722</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>-38.53591706327325</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>178.2847228198809</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>-38.53361675771052</v>
       </c>
     </row>
@@ -29366,27 +29381,28 @@
       <c r="P12" t="n">
         <v>311.6826106913257</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
         <is>
           <t>LINESTRING (178.27943507800276 -38.532513698394055, 178.2891757087528 -38.53549369535043)</t>
         </is>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>178.2794350780028</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>-38.53251369839406</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>178.2891757087528</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>-38.53549369535043</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>178.2843053933778</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>-38.53400369687225</v>
       </c>
     </row>
@@ -29443,27 +29459,28 @@
       <c r="P13" t="n">
         <v>301.2373043745662</v>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
         <is>
           <t>LINESTRING (178.27902520147094 -38.53392154153893, 178.2893803572471 -38.53505501810284)</t>
         </is>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>178.2790252014709</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>-38.53392154153893</v>
       </c>
-      <c r="T13" t="n">
+      <c r="U13" t="n">
         <v>178.2893803572471</v>
       </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>-38.53505501810284</v>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>178.284202779359</v>
       </c>
-      <c r="W13" t="n">
+      <c r="X13" t="n">
         <v>-38.53448827982088</v>
       </c>
     </row>
@@ -29520,27 +29537,28 @@
       <c r="P14" t="n">
         <v>297.4008306629412</v>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
         <is>
           <t>LINESTRING (178.27887015937384 -38.534641637518526, 178.28923743839377 -38.535705171393225)</t>
         </is>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>178.2788701593738</v>
       </c>
-      <c r="S14" t="n">
+      <c r="T14" t="n">
         <v>-38.53464163751853</v>
       </c>
-      <c r="T14" t="n">
+      <c r="U14" t="n">
         <v>178.2892374383938</v>
       </c>
-      <c r="U14" t="n">
+      <c r="V14" t="n">
         <v>-38.53570517139323</v>
       </c>
-      <c r="V14" t="n">
+      <c r="W14" t="n">
         <v>178.2840537988838</v>
       </c>
-      <c r="W14" t="n">
+      <c r="X14" t="n">
         <v>-38.53517340445588</v>
       </c>
     </row>
@@ -29597,27 +29615,28 @@
       <c r="P15" t="n">
         <v>308.4341722108483</v>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr">
         <is>
           <t>LINESTRING (178.27872848365917 -38.53528834947821, 178.2890750060056 -38.53647003033583)</t>
         </is>
       </c>
-      <c r="R15" t="n">
+      <c r="S15" t="n">
         <v>178.2787284836592</v>
       </c>
-      <c r="S15" t="n">
+      <c r="T15" t="n">
         <v>-38.53528834947821</v>
       </c>
-      <c r="T15" t="n">
+      <c r="U15" t="n">
         <v>178.2890750060056</v>
       </c>
-      <c r="U15" t="n">
+      <c r="V15" t="n">
         <v>-38.53647003033583</v>
       </c>
-      <c r="V15" t="n">
+      <c r="W15" t="n">
         <v>178.2839017448324</v>
       </c>
-      <c r="W15" t="n">
+      <c r="X15" t="n">
         <v>-38.53587918990702</v>
       </c>
     </row>
@@ -29674,27 +29693,28 @@
       <c r="P16" t="n">
         <v>315.1238836930473</v>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr">
         <is>
           <t>LINESTRING (178.2785689627221 -38.53589947533514, 178.28887533081067 -38.53728050439816)</t>
         </is>
       </c>
-      <c r="R16" t="n">
+      <c r="S16" t="n">
         <v>178.2785689627221</v>
       </c>
-      <c r="S16" t="n">
+      <c r="T16" t="n">
         <v>-38.53589947533514</v>
       </c>
-      <c r="T16" t="n">
+      <c r="U16" t="n">
         <v>178.2888753308107</v>
       </c>
-      <c r="U16" t="n">
+      <c r="V16" t="n">
         <v>-38.53728050439816</v>
       </c>
-      <c r="V16" t="n">
+      <c r="W16" t="n">
         <v>178.2837221467664</v>
       </c>
-      <c r="W16" t="n">
+      <c r="X16" t="n">
         <v>-38.53658998986666</v>
       </c>
     </row>
@@ -29751,27 +29771,28 @@
       <c r="P17" t="n">
         <v>310.3558082877906</v>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr">
         <is>
           <t>LINESTRING (178.27838278565287 -38.53655395839889, 178.28867097905228 -38.53801624071738)</t>
         </is>
       </c>
-      <c r="R17" t="n">
+      <c r="S17" t="n">
         <v>178.2783827856529</v>
       </c>
-      <c r="S17" t="n">
+      <c r="T17" t="n">
         <v>-38.53655395839889</v>
       </c>
-      <c r="T17" t="n">
+      <c r="U17" t="n">
         <v>178.2886709790523</v>
       </c>
-      <c r="U17" t="n">
+      <c r="V17" t="n">
         <v>-38.53801624071738</v>
       </c>
-      <c r="V17" t="n">
+      <c r="W17" t="n">
         <v>178.2835268823526</v>
       </c>
-      <c r="W17" t="n">
+      <c r="X17" t="n">
         <v>-38.53728509955813</v>
       </c>
     </row>
@@ -29828,27 +29849,28 @@
       <c r="P18" t="n">
         <v>317.8560650965474</v>
       </c>
-      <c r="Q18" t="inlineStr">
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr">
         <is>
           <t>LINESTRING (178.27818925831068 -38.53724012601069, 178.28847751638315 -38.53870240932507)</t>
         </is>
       </c>
-      <c r="R18" t="n">
+      <c r="S18" t="n">
         <v>178.2781892583107</v>
       </c>
-      <c r="S18" t="n">
+      <c r="T18" t="n">
         <v>-38.53724012601069</v>
       </c>
-      <c r="T18" t="n">
+      <c r="U18" t="n">
         <v>178.2884775163832</v>
       </c>
-      <c r="U18" t="n">
+      <c r="V18" t="n">
         <v>-38.53870240932507</v>
       </c>
-      <c r="V18" t="n">
+      <c r="W18" t="n">
         <v>178.2833333873469</v>
       </c>
-      <c r="W18" t="n">
+      <c r="X18" t="n">
         <v>-38.53797126766788</v>
       </c>
     </row>
@@ -29905,27 +29927,28 @@
       <c r="P19" t="n">
         <v>319.6482614797574</v>
       </c>
-      <c r="Q19" t="inlineStr">
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr">
         <is>
           <t>LINESTRING (178.27799573096803 -38.537926287077134, 178.28828405371482 -38.539388571387654)</t>
         </is>
       </c>
-      <c r="R19" t="n">
+      <c r="S19" t="n">
         <v>178.277995730968</v>
       </c>
-      <c r="S19" t="n">
+      <c r="T19" t="n">
         <v>-38.53792628707713</v>
       </c>
-      <c r="T19" t="n">
+      <c r="U19" t="n">
         <v>178.2882840537148</v>
       </c>
-      <c r="U19" t="n">
+      <c r="V19" t="n">
         <v>-38.53938857138765</v>
       </c>
-      <c r="V19" t="n">
+      <c r="W19" t="n">
         <v>178.2831398923414</v>
       </c>
-      <c r="W19" t="n">
+      <c r="X19" t="n">
         <v>-38.53865742923239</v>
       </c>
     </row>

--- a/data/nzd0262/nzd0262.xlsx
+++ b/data/nzd0262/nzd0262.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T394"/>
+  <dimension ref="A1:T400"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24436,6 +24436,394 @@
         </is>
       </c>
     </row>
+    <row r="395">
+      <c r="A395" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-05 21:54:08+00:00</t>
+        </is>
+      </c>
+      <c r="B395" t="n">
+        <v>266.31</v>
+      </c>
+      <c r="C395" t="n">
+        <v>252.6255555555556</v>
+      </c>
+      <c r="D395" t="n">
+        <v>245</v>
+      </c>
+      <c r="E395" t="n">
+        <v>245.8185714285714</v>
+      </c>
+      <c r="F395" t="n">
+        <v>245.4985714285714</v>
+      </c>
+      <c r="G395" t="n">
+        <v>251.4</v>
+      </c>
+      <c r="H395" t="n">
+        <v>239.0533333333333</v>
+      </c>
+      <c r="I395" t="n">
+        <v>227.2433333333333</v>
+      </c>
+      <c r="J395" t="n">
+        <v>245.0385714285714</v>
+      </c>
+      <c r="K395" t="n">
+        <v>270.61</v>
+      </c>
+      <c r="L395" t="n">
+        <v>297.66</v>
+      </c>
+      <c r="M395" t="n">
+        <v>285.54</v>
+      </c>
+      <c r="N395" t="n">
+        <v>288.22</v>
+      </c>
+      <c r="O395" t="n">
+        <v>283.7466666666667</v>
+      </c>
+      <c r="P395" t="n">
+        <v>289.0255555555556</v>
+      </c>
+      <c r="Q395" t="n">
+        <v>280.88</v>
+      </c>
+      <c r="R395" t="n">
+        <v>297.3055555555555</v>
+      </c>
+      <c r="S395" t="n">
+        <v>301.5285714285715</v>
+      </c>
+      <c r="T395" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-13 21:53:52+00:00</t>
+        </is>
+      </c>
+      <c r="B396" t="n">
+        <v>287.74</v>
+      </c>
+      <c r="C396" t="n">
+        <v>267.0333333333333</v>
+      </c>
+      <c r="D396" t="n">
+        <v>261.98</v>
+      </c>
+      <c r="E396" t="n">
+        <v>258.15</v>
+      </c>
+      <c r="F396" t="n">
+        <v>253.47</v>
+      </c>
+      <c r="G396" t="n">
+        <v>244.84</v>
+      </c>
+      <c r="H396" t="n">
+        <v>246.34</v>
+      </c>
+      <c r="I396" t="n">
+        <v>242.3</v>
+      </c>
+      <c r="J396" t="n">
+        <v>259.85</v>
+      </c>
+      <c r="K396" t="n">
+        <v>279.82</v>
+      </c>
+      <c r="L396" t="n">
+        <v>305.43</v>
+      </c>
+      <c r="M396" t="n">
+        <v>295.12</v>
+      </c>
+      <c r="N396" t="n">
+        <v>282.75</v>
+      </c>
+      <c r="O396" t="n">
+        <v>295.89</v>
+      </c>
+      <c r="P396" t="n">
+        <v>298.7433333333333</v>
+      </c>
+      <c r="Q396" t="n">
+        <v>292.72</v>
+      </c>
+      <c r="R396" t="n">
+        <v>305.9233333333333</v>
+      </c>
+      <c r="S396" t="n">
+        <v>306.38</v>
+      </c>
+      <c r="T396" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-21 21:53:56+00:00</t>
+        </is>
+      </c>
+      <c r="B397" t="n">
+        <v>289.91</v>
+      </c>
+      <c r="C397" t="n">
+        <v>271.11</v>
+      </c>
+      <c r="D397" t="n">
+        <v>265.38</v>
+      </c>
+      <c r="E397" t="n">
+        <v>260.6542857142857</v>
+      </c>
+      <c r="F397" t="n">
+        <v>260.2442857142857</v>
+      </c>
+      <c r="G397" t="n">
+        <v>256.63</v>
+      </c>
+      <c r="H397" t="n">
+        <v>252.89</v>
+      </c>
+      <c r="I397" t="n">
+        <v>250.02</v>
+      </c>
+      <c r="J397" t="n">
+        <v>269.6042857142857</v>
+      </c>
+      <c r="K397" t="n">
+        <v>286.66</v>
+      </c>
+      <c r="L397" t="n">
+        <v>316.73</v>
+      </c>
+      <c r="M397" t="n">
+        <v>303.64</v>
+      </c>
+      <c r="N397" t="n">
+        <v>294.58</v>
+      </c>
+      <c r="O397" t="n">
+        <v>301.87</v>
+      </c>
+      <c r="P397" t="n">
+        <v>298.79</v>
+      </c>
+      <c r="Q397" t="n">
+        <v>295.82</v>
+      </c>
+      <c r="R397" t="n">
+        <v>302.18</v>
+      </c>
+      <c r="S397" t="n">
+        <v>309.4442857142857</v>
+      </c>
+      <c r="T397" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-29 21:53:43+00:00</t>
+        </is>
+      </c>
+      <c r="B398" t="n">
+        <v>301.38</v>
+      </c>
+      <c r="C398" t="n">
+        <v>281.4955555555555</v>
+      </c>
+      <c r="D398" t="n">
+        <v>269.12</v>
+      </c>
+      <c r="E398" t="n">
+        <v>264.3657142857143</v>
+      </c>
+      <c r="F398" t="n">
+        <v>262.1857142857143</v>
+      </c>
+      <c r="G398" t="n">
+        <v>249.94</v>
+      </c>
+      <c r="H398" t="n">
+        <v>256.0733333333333</v>
+      </c>
+      <c r="I398" t="n">
+        <v>252.2933333333333</v>
+      </c>
+      <c r="J398" t="n">
+        <v>259.7157142857143</v>
+      </c>
+      <c r="K398" t="n">
+        <v>278.43</v>
+      </c>
+      <c r="L398" t="n">
+        <v>316.29</v>
+      </c>
+      <c r="M398" t="n">
+        <v>299.36</v>
+      </c>
+      <c r="N398" t="n">
+        <v>288.24</v>
+      </c>
+      <c r="O398" t="n">
+        <v>296.6366666666667</v>
+      </c>
+      <c r="P398" t="n">
+        <v>301.2855555555556</v>
+      </c>
+      <c r="Q398" t="n">
+        <v>296.15</v>
+      </c>
+      <c r="R398" t="n">
+        <v>308.5455555555556</v>
+      </c>
+      <c r="S398" t="n">
+        <v>305.0457142857143</v>
+      </c>
+      <c r="T398" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-06 21:53:55+00:00</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr"/>
+      <c r="C399" t="inlineStr"/>
+      <c r="D399" t="inlineStr"/>
+      <c r="E399" t="inlineStr"/>
+      <c r="F399" t="n">
+        <v>270.18</v>
+      </c>
+      <c r="G399" t="n">
+        <v>261.85</v>
+      </c>
+      <c r="H399" t="n">
+        <v>265.72</v>
+      </c>
+      <c r="I399" t="n">
+        <v>252.48</v>
+      </c>
+      <c r="J399" t="n">
+        <v>263.26</v>
+      </c>
+      <c r="K399" t="n">
+        <v>283.63</v>
+      </c>
+      <c r="L399" t="n">
+        <v>316.83</v>
+      </c>
+      <c r="M399" t="n">
+        <v>283.35</v>
+      </c>
+      <c r="N399" t="n">
+        <v>265.45</v>
+      </c>
+      <c r="O399" t="n">
+        <v>275.04</v>
+      </c>
+      <c r="P399" t="n">
+        <v>289.4433333333333</v>
+      </c>
+      <c r="Q399" t="n">
+        <v>299.89</v>
+      </c>
+      <c r="R399" t="n">
+        <v>313.0033333333333</v>
+      </c>
+      <c r="S399" t="n">
+        <v>306.98</v>
+      </c>
+      <c r="T399" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-22 21:53:49+00:00</t>
+        </is>
+      </c>
+      <c r="B400" t="n">
+        <v>287.87</v>
+      </c>
+      <c r="C400" t="n">
+        <v>265.8877777777778</v>
+      </c>
+      <c r="D400" t="n">
+        <v>258.71</v>
+      </c>
+      <c r="E400" t="n">
+        <v>257.0714285714286</v>
+      </c>
+      <c r="F400" t="n">
+        <v>256.6114285714286</v>
+      </c>
+      <c r="G400" t="n">
+        <v>255.29</v>
+      </c>
+      <c r="H400" t="n">
+        <v>252.1966666666666</v>
+      </c>
+      <c r="I400" t="n">
+        <v>244.2266666666666</v>
+      </c>
+      <c r="J400" t="n">
+        <v>259.0314285714285</v>
+      </c>
+      <c r="K400" t="n">
+        <v>274.59</v>
+      </c>
+      <c r="L400" t="n">
+        <v>306.22</v>
+      </c>
+      <c r="M400" t="n">
+        <v>294.01</v>
+      </c>
+      <c r="N400" t="n">
+        <v>283.34</v>
+      </c>
+      <c r="O400" t="n">
+        <v>296.0333333333333</v>
+      </c>
+      <c r="P400" t="n">
+        <v>301.1577777777778</v>
+      </c>
+      <c r="Q400" t="n">
+        <v>294.15</v>
+      </c>
+      <c r="R400" t="n">
+        <v>305.3077777777777</v>
+      </c>
+      <c r="S400" t="n">
+        <v>302.4014285714285</v>
+      </c>
+      <c r="T400" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -24447,7 +24835,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B395"/>
+  <dimension ref="A1:B401"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28405,6 +28793,66 @@
       </c>
       <c r="B395" t="n">
         <v>-0.52</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>2025-03-05 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B396" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>2025-03-13 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B397" t="n">
+        <v>-0.21</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>2025-03-21 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B398" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>2025-03-29 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B399" t="n">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>2025-04-06 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B400" t="n">
+        <v>-0.21</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>2025-04-22 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B401" t="n">
+        <v>-0.19</v>
       </c>
     </row>
   </sheetData>
@@ -28578,28 +29026,28 @@
         <v>0.0569</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.2866619907440168</v>
+        <v>-0.2611518675683309</v>
       </c>
       <c r="J2" t="n">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="K2" t="n">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01487915610248258</v>
+        <v>0.0130372011105151</v>
       </c>
       <c r="M2" t="n">
-        <v>13.36311334125647</v>
+        <v>13.29662831000174</v>
       </c>
       <c r="N2" t="n">
-        <v>293.8282905716893</v>
+        <v>290.4626800743772</v>
       </c>
       <c r="O2" t="n">
-        <v>17.14142031955605</v>
+        <v>17.04296570654231</v>
       </c>
       <c r="P2" t="n">
-        <v>289.0042166701302</v>
+        <v>288.775341052166</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -28656,28 +29104,28 @@
         <v>0.0558</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.4286738302194945</v>
+        <v>-0.3965314677599271</v>
       </c>
       <c r="J3" t="n">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="K3" t="n">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04096311076933834</v>
+        <v>0.03670617001570486</v>
       </c>
       <c r="M3" t="n">
-        <v>11.69114312374345</v>
+        <v>11.64939531004707</v>
       </c>
       <c r="N3" t="n">
-        <v>229.475035281904</v>
+        <v>227.703754880902</v>
       </c>
       <c r="O3" t="n">
-        <v>15.14843342665848</v>
+        <v>15.08985602585068</v>
       </c>
       <c r="P3" t="n">
-        <v>271.1259825215329</v>
+        <v>270.8342296048189</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -28734,28 +29182,28 @@
         <v>0.0463</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.2872132011013294</v>
+        <v>-0.2612262396215246</v>
       </c>
       <c r="J4" t="n">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="K4" t="n">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02194911710061087</v>
+        <v>0.01886990299304081</v>
       </c>
       <c r="M4" t="n">
-        <v>10.9290099644454</v>
+        <v>10.90892633902898</v>
       </c>
       <c r="N4" t="n">
-        <v>189.1278175643988</v>
+        <v>187.8905021780477</v>
       </c>
       <c r="O4" t="n">
-        <v>13.75237497904994</v>
+        <v>13.7073156445034</v>
       </c>
       <c r="P4" t="n">
-        <v>260.4141320709624</v>
+        <v>260.1701530769347</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -28812,28 +29260,28 @@
         <v>0.0399</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.274990859326862</v>
+        <v>-0.2701613466748194</v>
       </c>
       <c r="J5" t="n">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="K5" t="n">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01893892346271331</v>
+        <v>0.0188841155503553</v>
       </c>
       <c r="M5" t="n">
-        <v>11.47895179360174</v>
+        <v>11.39475443442022</v>
       </c>
       <c r="N5" t="n">
-        <v>202.1207251770734</v>
+        <v>199.879956296635</v>
       </c>
       <c r="O5" t="n">
-        <v>14.21691686608153</v>
+        <v>14.13789080084561</v>
       </c>
       <c r="P5" t="n">
-        <v>262.6792212551023</v>
+        <v>262.6324002246487</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -28890,28 +29338,28 @@
         <v>0.0378</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.1489188220264888</v>
+        <v>-0.155967988495719</v>
       </c>
       <c r="J6" t="n">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="K6" t="n">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="L6" t="n">
-        <v>0.006233522435788008</v>
+        <v>0.007089374579330343</v>
       </c>
       <c r="M6" t="n">
-        <v>10.8842380751673</v>
+        <v>10.80444518675506</v>
       </c>
       <c r="N6" t="n">
-        <v>186.4747714175298</v>
+        <v>184.2890309849913</v>
       </c>
       <c r="O6" t="n">
-        <v>13.6555765684767</v>
+        <v>13.57530960917619</v>
       </c>
       <c r="P6" t="n">
-        <v>263.8000511855812</v>
+        <v>263.8674843134421</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -28968,28 +29416,28 @@
         <v>0.0273</v>
       </c>
       <c r="I7" t="n">
-        <v>0.01704154187899585</v>
+        <v>-0.0150615228980216</v>
       </c>
       <c r="J7" t="n">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="K7" t="n">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="L7" t="n">
-        <v>6.65396292442999e-05</v>
+        <v>5.379240469849389e-05</v>
       </c>
       <c r="M7" t="n">
-        <v>12.27577818641408</v>
+        <v>12.23447477624797</v>
       </c>
       <c r="N7" t="n">
-        <v>227.5830293269862</v>
+        <v>225.5568806921007</v>
       </c>
       <c r="O7" t="n">
-        <v>15.08585527330109</v>
+        <v>15.01855121814686</v>
       </c>
       <c r="P7" t="n">
-        <v>261.9195922927973</v>
+        <v>262.2269803048003</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -29046,28 +29494,28 @@
         <v>0.0316</v>
       </c>
       <c r="I8" t="n">
-        <v>0.07946422838972615</v>
+        <v>0.0620968780415225</v>
       </c>
       <c r="J8" t="n">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="K8" t="n">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="L8" t="n">
-        <v>0.002080212340477949</v>
+        <v>0.001312878258409089</v>
       </c>
       <c r="M8" t="n">
-        <v>10.04308728532747</v>
+        <v>10.00991773099953</v>
       </c>
       <c r="N8" t="n">
-        <v>157.9964819573024</v>
+        <v>156.860352270722</v>
       </c>
       <c r="O8" t="n">
-        <v>12.56966514897284</v>
+        <v>12.52439029536855</v>
       </c>
       <c r="P8" t="n">
-        <v>254.9096318733163</v>
+        <v>255.0764665124961</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -29124,28 +29572,28 @@
         <v>0.031</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1539790841769551</v>
+        <v>0.1234024043858021</v>
       </c>
       <c r="J9" t="n">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="K9" t="n">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="L9" t="n">
-        <v>0.008437436140875887</v>
+        <v>0.00557222463535112</v>
       </c>
       <c r="M9" t="n">
-        <v>9.427965667881002</v>
+        <v>9.423598940807029</v>
       </c>
       <c r="N9" t="n">
-        <v>144.7318433692847</v>
+        <v>144.760265200509</v>
       </c>
       <c r="O9" t="n">
-        <v>12.0304548280306</v>
+        <v>12.03163601512733</v>
       </c>
       <c r="P9" t="n">
-        <v>249.4395928387151</v>
+        <v>249.7336475669964</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -29202,28 +29650,28 @@
         <v>0.0371</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1084752043062842</v>
+        <v>0.08512280725892329</v>
       </c>
       <c r="J10" t="n">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="K10" t="n">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="L10" t="n">
-        <v>0.004697959744418778</v>
+        <v>0.002986042317622117</v>
       </c>
       <c r="M10" t="n">
-        <v>9.005361596595526</v>
+        <v>8.9930823405967</v>
       </c>
       <c r="N10" t="n">
-        <v>128.2278018682206</v>
+        <v>127.6773763223172</v>
       </c>
       <c r="O10" t="n">
-        <v>11.3237715390333</v>
+        <v>11.29944141638502</v>
       </c>
       <c r="P10" t="n">
-        <v>263.190425231244</v>
+        <v>263.4154894948351</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -29280,28 +29728,28 @@
         <v>0.0436</v>
       </c>
       <c r="I11" t="n">
-        <v>0.02017237539678903</v>
+        <v>0.006416572342109051</v>
       </c>
       <c r="J11" t="n">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="K11" t="n">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0001850308269101264</v>
+        <v>1.939860730804099e-05</v>
       </c>
       <c r="M11" t="n">
-        <v>8.363131674736643</v>
+        <v>8.314014178401537</v>
       </c>
       <c r="N11" t="n">
-        <v>114.7927491440919</v>
+        <v>113.5926495654281</v>
       </c>
       <c r="O11" t="n">
-        <v>10.7141378161797</v>
+        <v>10.65798524888396</v>
       </c>
       <c r="P11" t="n">
-        <v>282.3319143082157</v>
+        <v>282.4641754360906</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -29358,28 +29806,28 @@
         <v>0.0426</v>
       </c>
       <c r="I12" t="n">
-        <v>0.02433735152615065</v>
+        <v>0.01562837065800181</v>
       </c>
       <c r="J12" t="n">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="K12" t="n">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0002691986812625169</v>
+        <v>0.0001147437628739034</v>
       </c>
       <c r="M12" t="n">
-        <v>8.360018562864623</v>
+        <v>8.334860575441249</v>
       </c>
       <c r="N12" t="n">
-        <v>111.3163460983082</v>
+        <v>110.450479627028</v>
       </c>
       <c r="O12" t="n">
-        <v>10.5506561927829</v>
+        <v>10.50954231291868</v>
       </c>
       <c r="P12" t="n">
-        <v>311.6826106913257</v>
+        <v>311.7679477515452</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -29436,28 +29884,28 @@
         <v>0.0457</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.03484047916509692</v>
+        <v>-0.05869555752280062</v>
       </c>
       <c r="J13" t="n">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="K13" t="n">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0005670552345138358</v>
+        <v>0.001650040450635326</v>
       </c>
       <c r="M13" t="n">
-        <v>8.282701457839526</v>
+        <v>8.284494313675207</v>
       </c>
       <c r="N13" t="n">
-        <v>109.5922616888248</v>
+        <v>109.3572608718595</v>
       </c>
       <c r="O13" t="n">
-        <v>10.4686322740282</v>
+        <v>10.45740220474758</v>
       </c>
       <c r="P13" t="n">
-        <v>301.2373043745662</v>
+        <v>301.4715923137621</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -29514,28 +29962,28 @@
         <v>0.0453</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.1189408504500257</v>
+        <v>-0.1553723483744725</v>
       </c>
       <c r="J14" t="n">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="K14" t="n">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="L14" t="n">
-        <v>0.008259993147768596</v>
+        <v>0.01409708326472003</v>
       </c>
       <c r="M14" t="n">
-        <v>7.364253265804847</v>
+        <v>7.436324521101753</v>
       </c>
       <c r="N14" t="n">
-        <v>88.15919339661883</v>
+        <v>89.76985097933314</v>
       </c>
       <c r="O14" t="n">
-        <v>9.389312722271999</v>
+        <v>9.474695297440078</v>
       </c>
       <c r="P14" t="n">
-        <v>297.4008306629412</v>
+        <v>297.7529396257145</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -29592,28 +30040,28 @@
         <v>0.0672</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.2693812791675466</v>
+        <v>-0.3040199905220549</v>
       </c>
       <c r="J15" t="n">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="K15" t="n">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="L15" t="n">
-        <v>0.06047961575711924</v>
+        <v>0.07522211990075078</v>
       </c>
       <c r="M15" t="n">
-        <v>5.919956850517992</v>
+        <v>5.994942673585279</v>
       </c>
       <c r="N15" t="n">
-        <v>59.1417653487354</v>
+        <v>61.09268651832215</v>
       </c>
       <c r="O15" t="n">
-        <v>7.690368349353326</v>
+        <v>7.816181069954953</v>
       </c>
       <c r="P15" t="n">
-        <v>308.4341722108483</v>
+        <v>308.7659205670291</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -29670,28 +30118,28 @@
         <v>0.0505</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.3517270495390044</v>
+        <v>-0.3861745984761893</v>
       </c>
       <c r="J16" t="n">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="K16" t="n">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="L16" t="n">
-        <v>0.08845505005338994</v>
+        <v>0.1059131262748452</v>
       </c>
       <c r="M16" t="n">
-        <v>6.177817341962892</v>
+        <v>6.251708053142514</v>
       </c>
       <c r="N16" t="n">
-        <v>66.95912592525362</v>
+        <v>67.77666477581634</v>
       </c>
       <c r="O16" t="n">
-        <v>8.182855609458938</v>
+        <v>8.232658427009852</v>
       </c>
       <c r="P16" t="n">
-        <v>315.1238836930473</v>
+        <v>315.4549685984186</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -29748,28 +30196,28 @@
         <v>0.0557</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.3487241634081579</v>
+        <v>-0.3773478193631029</v>
       </c>
       <c r="J17" t="n">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="K17" t="n">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0880805852072708</v>
+        <v>0.103122897564264</v>
       </c>
       <c r="M17" t="n">
-        <v>6.400802920046893</v>
+        <v>6.418388006933291</v>
       </c>
       <c r="N17" t="n">
-        <v>65.03730321420073</v>
+        <v>65.5812149816971</v>
       </c>
       <c r="O17" t="n">
-        <v>8.064570863610831</v>
+        <v>8.098222952086285</v>
       </c>
       <c r="P17" t="n">
-        <v>310.3558082877906</v>
+        <v>310.6326574257229</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -29826,28 +30274,28 @@
         <v>0.0475</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.3011597415221608</v>
+        <v>-0.3180755424061868</v>
       </c>
       <c r="J18" t="n">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="K18" t="n">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="L18" t="n">
-        <v>0.06999074009534989</v>
+        <v>0.07964264841559932</v>
       </c>
       <c r="M18" t="n">
-        <v>6.184180868378911</v>
+        <v>6.175953509955949</v>
       </c>
       <c r="N18" t="n">
-        <v>61.98566379401101</v>
+        <v>61.71004430296595</v>
       </c>
       <c r="O18" t="n">
-        <v>7.873097471390216</v>
+        <v>7.855574091240305</v>
       </c>
       <c r="P18" t="n">
-        <v>317.8560650965474</v>
+        <v>318.018744398398</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -29904,28 +30352,28 @@
         <v>0.0408</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.223907039392555</v>
+        <v>-0.2563235860811847</v>
       </c>
       <c r="J19" t="n">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="K19" t="n">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0411204987042596</v>
+        <v>0.05432932671437729</v>
       </c>
       <c r="M19" t="n">
-        <v>6.171437332768763</v>
+        <v>6.22532443495638</v>
       </c>
       <c r="N19" t="n">
-        <v>61.06525909477922</v>
+        <v>61.34528404387288</v>
       </c>
       <c r="O19" t="n">
-        <v>7.814426344574452</v>
+        <v>7.832323029847076</v>
       </c>
       <c r="P19" t="n">
-        <v>319.6482614797574</v>
+        <v>319.9596568773637</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -29963,7 +30411,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T394"/>
+  <dimension ref="A1:T400"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66079,6 +66527,602 @@
         </is>
       </c>
     </row>
+    <row r="395">
+      <c r="A395" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-05 21:54:08+00:00</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>-38.52823870945844,178.28901690591758</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>-38.52855447251334,178.28819290020581</t>
+        </is>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>-38.528913060805024,178.287411720146</t>
+        </is>
+      </c>
+      <c r="E395" t="inlineStr">
+        <is>
+          <t>-38.52933133562176,178.28669022494404</t>
+        </is>
+      </c>
+      <c r="F395" t="inlineStr">
+        <is>
+          <t>-38.52974155981809,178.28596068208205</t>
+        </is>
+      </c>
+      <c r="G395" t="inlineStr">
+        <is>
+          <t>-38.530235239769944,178.28521233825302</t>
+        </is>
+      </c>
+      <c r="H395" t="inlineStr">
+        <is>
+          <t>-38.530748832811526,178.2843278875664</t>
+        </is>
+      </c>
+      <c r="I395" t="inlineStr">
+        <is>
+          <t>-38.53132852527681,178.28361231653167</t>
+        </is>
+      </c>
+      <c r="J395" t="inlineStr">
+        <is>
+          <t>-38.53198457063853,178.28324924432386</t>
+        </is>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>-38.53267978784621,178.28295987037478</t>
+        </is>
+      </c>
+      <c r="L395" t="inlineStr">
+        <is>
+          <t>-38.533484845410456,178.28260904509267</t>
+        </is>
+      </c>
+      <c r="M395" t="inlineStr">
+        <is>
+          <t>-38.534275895448445,178.2822615389851</t>
+        </is>
+      </c>
+      <c r="N395" t="inlineStr">
+        <is>
+          <t>-38.53497725204125,178.28214069804915</t>
+        </is>
+      </c>
+      <c r="O395" t="inlineStr">
+        <is>
+          <t>-38.53565545249737,178.28194184251547</t>
+        </is>
+      </c>
+      <c r="P395" t="inlineStr">
+        <is>
+          <t>-38.5363364781699,178.28182944454414</t>
+        </is>
+      </c>
+      <c r="Q395" t="inlineStr">
+        <is>
+          <t>-38.53700363104499,178.2815458147646</t>
+        </is>
+      </c>
+      <c r="R395" t="inlineStr">
+        <is>
+          <t>-38.53771609418526,178.28153729102468</t>
+        </is>
+      </c>
+      <c r="S395" t="inlineStr">
+        <is>
+          <t>-38.53840901726473,178.2813913530131</t>
+        </is>
+      </c>
+      <c r="T395" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-13 21:53:52+00:00</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>-38.52839019028663,178.28916837845344</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>-38.528656316408124,178.28829473762184</t>
+        </is>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>-38.52903308749428,178.28753173849498</t>
+        </is>
+      </c>
+      <c r="E396" t="inlineStr">
+        <is>
+          <t>-38.52941850330782,178.28677738617765</t>
+        </is>
+      </c>
+      <c r="F396" t="inlineStr">
+        <is>
+          <t>-38.52979790805111,178.28601702587284</t>
+        </is>
+      </c>
+      <c r="G396" t="inlineStr">
+        <is>
+          <t>-38.53019140542057,178.285162130172</t>
+        </is>
+      </c>
+      <c r="H396" t="inlineStr">
+        <is>
+          <t>-38.53079012816824,178.28439260822014</t>
+        </is>
+      </c>
+      <c r="I396" t="inlineStr">
+        <is>
+          <t>-38.53140437880284,178.28375500773066</t>
+        </is>
+      </c>
+      <c r="J396" t="inlineStr">
+        <is>
+          <t>-38.5320591888537,178.283389612621</t>
+        </is>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>-38.53272618679353,178.2830471545965</t>
+        </is>
+      </c>
+      <c r="L396" t="inlineStr">
+        <is>
+          <t>-38.53351019461048,178.28269189812167</t>
+        </is>
+      </c>
+      <c r="M396" t="inlineStr">
+        <is>
+          <t>-38.53428778258857,178.2823701199936</t>
+        </is>
+      </c>
+      <c r="N396" t="inlineStr">
+        <is>
+          <t>-38.534970883436735,178.28207862775335</t>
+        </is>
+      </c>
+      <c r="O396" t="inlineStr">
+        <is>
+          <t>-38.535671161151306,178.28207936318776</t>
+        </is>
+      </c>
+      <c r="P396" t="inlineStr">
+        <is>
+          <t>-38.53635116968673,178.28193907078708</t>
+        </is>
+      </c>
+      <c r="Q396" t="inlineStr">
+        <is>
+          <t>-38.53702258425178,178.2816791473264</t>
+        </is>
+      </c>
+      <c r="R396" t="inlineStr">
+        <is>
+          <t>-38.53772988924263,178.28163433849173</t>
+        </is>
+      </c>
+      <c r="S396" t="inlineStr">
+        <is>
+          <t>-38.53841678329161,178.28144598698375</t>
+        </is>
+      </c>
+      <c r="T396" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-21 21:53:56+00:00</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>-38.52840552920893,178.28918371658608</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>-38.52868513301874,178.2883235524729</t>
+        </is>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>-38.529057121088506,178.28755577048688</t>
+        </is>
+      </c>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t>-38.52943620544733,178.2867950870431</t>
+        </is>
+      </c>
+      <c r="F397" t="inlineStr">
+        <is>
+          <t>-38.529845793924316,178.28606490806854</t>
+        </is>
+      </c>
+      <c r="G397" t="inlineStr">
+        <is>
+          <t>-38.530270186953516,178.28525236699602</t>
+        </is>
+      </c>
+      <c r="H397" t="inlineStr">
+        <is>
+          <t>-38.53082724861595,178.28445078581424</t>
+        </is>
+      </c>
+      <c r="I397" t="inlineStr">
+        <is>
+          <t>-38.53144327108125,178.28382816985714</t>
+        </is>
+      </c>
+      <c r="J397" t="inlineStr">
+        <is>
+          <t>-38.53210832968079,178.28348205439605</t>
+        </is>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>-38.532760645898954,178.2831119781279</t>
+        </is>
+      </c>
+      <c r="L397" t="inlineStr">
+        <is>
+          <t>-38.533547060129735,178.28281239232476</t>
+        </is>
+      </c>
+      <c r="M397" t="inlineStr">
+        <is>
+          <t>-38.534298354362946,178.28246668684008</t>
+        </is>
+      </c>
+      <c r="N397" t="inlineStr">
+        <is>
+          <t>-38.534984656811226,178.28221286754294</t>
+        </is>
+      </c>
+      <c r="O397" t="inlineStr">
+        <is>
+          <t>-38.535678896836735,178.28214708543376</t>
+        </is>
+      </c>
+      <c r="P397" t="inlineStr">
+        <is>
+          <t>-38.53635124023802,178.2819395972338</t>
+        </is>
+      </c>
+      <c r="Q397" t="inlineStr">
+        <is>
+          <t>-38.5370275466363,178.2817140570431</t>
+        </is>
+      </c>
+      <c r="R397" t="inlineStr">
+        <is>
+          <t>-38.53772389704707,178.28159218365116</t>
+        </is>
+      </c>
+      <c r="S397" t="inlineStr">
+        <is>
+          <t>-38.53842168849813,178.2814804951942</t>
+        </is>
+      </c>
+      <c r="T397" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-29 21:53:43+00:00</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>-38.52848660632798,178.28926478968407</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>-38.52875854504177,178.2883969601601</t>
+        </is>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>-38.52908355803505,178.28758220569694</t>
+        </is>
+      </c>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t>-38.52946244055724,178.28682132028732</t>
+        </is>
+      </c>
+      <c r="F398" t="inlineStr">
+        <is>
+          <t>-38.52985951743345,178.2860786305403</t>
+        </is>
+      </c>
+      <c r="G398" t="inlineStr">
+        <is>
+          <t>-38.53022548395664,178.28520116388816</t>
+        </is>
+      </c>
+      <c r="H398" t="inlineStr">
+        <is>
+          <t>-38.53084528933035,178.28447906044235</t>
+        </is>
+      </c>
+      <c r="I398" t="inlineStr">
+        <is>
+          <t>-38.531454723806235,178.2838497141594</t>
+        </is>
+      </c>
+      <c r="J398" t="inlineStr">
+        <is>
+          <t>-38.53205851233911,178.2833883399905</t>
+        </is>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>-38.53271918413411,178.28303398140082</t>
+        </is>
+      </c>
+      <c r="L398" t="inlineStr">
+        <is>
+          <t>-38.5335456246607,178.282807700513</t>
+        </is>
+      </c>
+      <c r="M398" t="inlineStr">
+        <is>
+          <t>-38.53429304366964,178.28241817673165</t>
+        </is>
+      </c>
+      <c r="N398" t="inlineStr">
+        <is>
+          <t>-38.53497727532675,178.28214092499724</t>
+        </is>
+      </c>
+      <c r="O398" t="inlineStr">
+        <is>
+          <t>-38.535672127036186,178.28208781903066</t>
+        </is>
+      </c>
+      <c r="P398" t="inlineStr">
+        <is>
+          <t>-38.53635501304793,178.28196774959932</t>
+        </is>
+      </c>
+      <c r="Q398" t="inlineStr">
+        <is>
+          <t>-38.537028074889484,178.28171777323897</t>
+        </is>
+      </c>
+      <c r="R398" t="inlineStr">
+        <is>
+          <t>-38.53773408679379,178.28166386815465</t>
+        </is>
+      </c>
+      <c r="S398" t="inlineStr">
+        <is>
+          <t>-38.538414647408175,178.28143096103216</t>
+        </is>
+      </c>
+      <c r="T398" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-06 21:53:55+00:00</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr"/>
+      <c r="C399" t="inlineStr"/>
+      <c r="D399" t="inlineStr"/>
+      <c r="E399" t="inlineStr"/>
+      <c r="F399" t="inlineStr">
+        <is>
+          <t>-38.52991602716736,178.28613513608005</t>
+        </is>
+      </c>
+      <c r="G399" t="inlineStr">
+        <is>
+          <t>-38.53030506729987,178.28529231924142</t>
+        </is>
+      </c>
+      <c r="H399" t="inlineStr">
+        <is>
+          <t>-38.53089995925853,178.28456474301296</t>
+        </is>
+      </c>
+      <c r="I399" t="inlineStr">
+        <is>
+          <t>-38.53145566420574,178.2838514831933</t>
+        </is>
+      </c>
+      <c r="J399" t="inlineStr">
+        <is>
+          <t>-38.532076368001086,178.28342192932024</t>
+        </is>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>-38.53274538112481,178.28308326243334</t>
+        </is>
+      </c>
+      <c r="L399" t="inlineStr">
+        <is>
+          <t>-38.53354738637268,178.28281345864565</t>
+        </is>
+      </c>
+      <c r="M399" t="inlineStr">
+        <is>
+          <t>-38.53427317801873,178.282236717234</t>
+        </is>
+      </c>
+      <c r="N399" t="inlineStr">
+        <is>
+          <t>-38.53495074119227,178.28188231772492</t>
+        </is>
+      </c>
+      <c r="O399" t="inlineStr">
+        <is>
+          <t>-38.535644189423586,178.2818432413894</t>
+        </is>
+      </c>
+      <c r="P399" t="inlineStr">
+        <is>
+          <t>-38.536337109776284,178.28183415749422</t>
+        </is>
+      </c>
+      <c r="Q399" t="inlineStr">
+        <is>
+          <t>-38.53703406175053,178.28175989012834</t>
+        </is>
+      </c>
+      <c r="R399" t="inlineStr">
+        <is>
+          <t>-38.53774122261303,178.28171406858763</t>
+        </is>
+      </c>
+      <c r="S399" t="inlineStr">
+        <is>
+          <t>-38.53841774375247,178.28145274383587</t>
+        </is>
+      </c>
+      <c r="T399" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-22 21:53:49+00:00</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>-38.528391109208314,178.28916929732756</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>-38.52864821885256,178.28828664056653</t>
+        </is>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>-38.52900997282577,178.28750862538885</t>
+        </is>
+      </c>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t>-38.529410879167976,178.28676976259032</t>
+        </is>
+      </c>
+      <c r="F400" t="inlineStr">
+        <is>
+          <t>-38.529820114092786,178.286039230198</t>
+        </is>
+      </c>
+      <c r="G400" t="inlineStr">
+        <is>
+          <t>-38.530261232992196,178.28524211106193</t>
+        </is>
+      </c>
+      <c r="H400" t="inlineStr">
+        <is>
+          <t>-38.53082331932841,178.2844446275725</t>
+        </is>
+      </c>
+      <c r="I400" t="inlineStr">
+        <is>
+          <t>-38.53141408508443,178.28377326666526</t>
+        </is>
+      </c>
+      <c r="J400" t="inlineStr">
+        <is>
+          <t>-38.5320550649932,178.28338185499075</t>
+        </is>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>-38.53269983864899,178.28299758927594</t>
+        </is>
+      </c>
+      <c r="L400" t="inlineStr">
+        <is>
+          <t>-38.53351277193873,178.28270032204904</t>
+        </is>
+      </c>
+      <c r="M400" t="inlineStr">
+        <is>
+          <t>-38.534286405273896,178.28235753910303</t>
+        </is>
+      </c>
+      <c r="N400" t="inlineStr">
+        <is>
+          <t>-38.5349715703628,178.28208532272095</t>
+        </is>
+      </c>
+      <c r="O400" t="inlineStr">
+        <is>
+          <t>-38.535671346566744,178.2820809864076</t>
+        </is>
+      </c>
+      <c r="P400" t="inlineStr">
+        <is>
+          <t>-38.53635481987217,178.28196630813798</t>
+        </is>
+      </c>
+      <c r="Q400" t="inlineStr">
+        <is>
+          <t>-38.537024873353076,178.28169525084044</t>
+        </is>
+      </c>
+      <c r="R400" t="inlineStr">
+        <is>
+          <t>-38.53772890388415,178.28162740652886</t>
+        </is>
+      </c>
+      <c r="S400" t="inlineStr">
+        <is>
+          <t>-38.538410414511205,178.2814011826226</t>
+        </is>
+      </c>
+      <c r="T400" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0262/nzd0262.xlsx
+++ b/data/nzd0262/nzd0262.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T400"/>
+  <dimension ref="A1:T402"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24824,6 +24824,136 @@
         </is>
       </c>
     </row>
+    <row r="401">
+      <c r="A401" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-16 21:53:29+00:00</t>
+        </is>
+      </c>
+      <c r="B401" t="n">
+        <v>268.84</v>
+      </c>
+      <c r="C401" t="n">
+        <v>271.7266666666667</v>
+      </c>
+      <c r="D401" t="n">
+        <v>260.83</v>
+      </c>
+      <c r="E401" t="n">
+        <v>258.7228571428572</v>
+      </c>
+      <c r="F401" t="n">
+        <v>259.0728571428572</v>
+      </c>
+      <c r="G401" t="n">
+        <v>267.46</v>
+      </c>
+      <c r="H401" t="n">
+        <v>262.75</v>
+      </c>
+      <c r="I401" t="n">
+        <v>254.27</v>
+      </c>
+      <c r="J401" t="n">
+        <v>266.3928571428572</v>
+      </c>
+      <c r="K401" t="n">
+        <v>290.21</v>
+      </c>
+      <c r="L401" t="n">
+        <v>317.31</v>
+      </c>
+      <c r="M401" t="n">
+        <v>303.35</v>
+      </c>
+      <c r="N401" t="n">
+        <v>297.85</v>
+      </c>
+      <c r="O401" t="n">
+        <v>304.28</v>
+      </c>
+      <c r="P401" t="n">
+        <v>301.5866666666667</v>
+      </c>
+      <c r="Q401" t="n">
+        <v>305.87</v>
+      </c>
+      <c r="R401" t="n">
+        <v>312.4166666666667</v>
+      </c>
+      <c r="S401" t="n">
+        <v>314.4928571428572</v>
+      </c>
+      <c r="T401" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-24 21:53:33+00:00</t>
+        </is>
+      </c>
+      <c r="B402" t="n">
+        <v>286.16</v>
+      </c>
+      <c r="C402" t="n">
+        <v>275.5211111111111</v>
+      </c>
+      <c r="D402" t="n">
+        <v>273.53</v>
+      </c>
+      <c r="E402" t="n">
+        <v>281.8357142857143</v>
+      </c>
+      <c r="F402" t="n">
+        <v>252.1057142857143</v>
+      </c>
+      <c r="G402" t="n">
+        <v>277.7</v>
+      </c>
+      <c r="H402" t="n">
+        <v>260.6966666666667</v>
+      </c>
+      <c r="I402" t="n">
+        <v>236.6266666666666</v>
+      </c>
+      <c r="J402" t="n">
+        <v>246.5457142857143</v>
+      </c>
+      <c r="K402" t="n">
+        <v>311.8</v>
+      </c>
+      <c r="L402" t="n">
+        <v>335.79</v>
+      </c>
+      <c r="M402" t="inlineStr"/>
+      <c r="N402" t="n">
+        <v>279.69</v>
+      </c>
+      <c r="O402" t="n">
+        <v>306.0133333333333</v>
+      </c>
+      <c r="P402" t="n">
+        <v>309.0411111111111</v>
+      </c>
+      <c r="Q402" t="n">
+        <v>301.34</v>
+      </c>
+      <c r="R402" t="n">
+        <v>329.9711111111111</v>
+      </c>
+      <c r="S402" t="n">
+        <v>318.7557142857143</v>
+      </c>
+      <c r="T402" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -24835,7 +24965,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B401"/>
+  <dimension ref="A1:B403"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28853,6 +28983,26 @@
       </c>
       <c r="B401" t="n">
         <v>-0.19</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>2025-05-16 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B402" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>2025-05-24 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B403" t="n">
+        <v>-0.76</v>
       </c>
     </row>
   </sheetData>
@@ -29026,28 +29176,28 @@
         <v>0.0569</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.2611518675683309</v>
+        <v>-0.2701472486395184</v>
       </c>
       <c r="J2" t="n">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="K2" t="n">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0130372011105151</v>
+        <v>0.01423697885306086</v>
       </c>
       <c r="M2" t="n">
-        <v>13.29662831000174</v>
+        <v>13.2576647920481</v>
       </c>
       <c r="N2" t="n">
-        <v>290.4626800743772</v>
+        <v>288.6261197990026</v>
       </c>
       <c r="O2" t="n">
-        <v>17.04296570654231</v>
+        <v>16.98899996465368</v>
       </c>
       <c r="P2" t="n">
-        <v>288.775341052166</v>
+        <v>288.8563274177022</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -29104,28 +29254,28 @@
         <v>0.0558</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.3965314677599271</v>
+        <v>-0.3746082522616057</v>
       </c>
       <c r="J3" t="n">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="K3" t="n">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03670617001570486</v>
+        <v>0.03336642199151696</v>
       </c>
       <c r="M3" t="n">
-        <v>11.64939531004707</v>
+        <v>11.64577242547139</v>
       </c>
       <c r="N3" t="n">
-        <v>227.703754880902</v>
+        <v>227.2447493449437</v>
       </c>
       <c r="O3" t="n">
-        <v>15.08985602585068</v>
+        <v>15.07463927744023</v>
       </c>
       <c r="P3" t="n">
-        <v>270.8342296048189</v>
+        <v>270.6341195316233</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -29182,28 +29332,28 @@
         <v>0.0463</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.2612262396215246</v>
+        <v>-0.2410472707080289</v>
       </c>
       <c r="J4" t="n">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="K4" t="n">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01886990299304081</v>
+        <v>0.01626811517597482</v>
       </c>
       <c r="M4" t="n">
-        <v>10.90892633902898</v>
+        <v>10.91931951600321</v>
       </c>
       <c r="N4" t="n">
-        <v>187.8905021780477</v>
+        <v>188.1361183273533</v>
       </c>
       <c r="O4" t="n">
-        <v>13.7073156445034</v>
+        <v>13.7162720273168</v>
       </c>
       <c r="P4" t="n">
-        <v>260.1701530769347</v>
+        <v>259.9796423975943</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -29260,28 +29410,28 @@
         <v>0.0399</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.2701613466748194</v>
+        <v>-0.2526495170611614</v>
       </c>
       <c r="J5" t="n">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="K5" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0188841155503553</v>
+        <v>0.01662597858294868</v>
       </c>
       <c r="M5" t="n">
-        <v>11.39475443442022</v>
+        <v>11.40981994269166</v>
       </c>
       <c r="N5" t="n">
-        <v>199.879956296635</v>
+        <v>200.6752010315444</v>
       </c>
       <c r="O5" t="n">
-        <v>14.13789080084561</v>
+        <v>14.16598747110643</v>
       </c>
       <c r="P5" t="n">
-        <v>262.6324002246487</v>
+        <v>262.462028714894</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -29338,28 +29488,28 @@
         <v>0.0378</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.155967988495719</v>
+        <v>-0.161120316301983</v>
       </c>
       <c r="J6" t="n">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="K6" t="n">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="L6" t="n">
-        <v>0.007089374579330343</v>
+        <v>0.007660103759017378</v>
       </c>
       <c r="M6" t="n">
-        <v>10.80444518675506</v>
+        <v>10.76790942465487</v>
       </c>
       <c r="N6" t="n">
-        <v>184.2890309849913</v>
+        <v>183.3909684708244</v>
       </c>
       <c r="O6" t="n">
-        <v>13.57530960917619</v>
+        <v>13.54219215898314</v>
       </c>
       <c r="P6" t="n">
-        <v>263.8674843134421</v>
+        <v>263.9173327308811</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -29416,28 +29566,28 @@
         <v>0.0273</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.0150615228980216</v>
+        <v>-0.002393195042837628</v>
       </c>
       <c r="J7" t="n">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="K7" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="L7" t="n">
-        <v>5.379240469849389e-05</v>
+        <v>1.37226324481432e-06</v>
       </c>
       <c r="M7" t="n">
-        <v>12.23447477624797</v>
+        <v>12.22009497202139</v>
       </c>
       <c r="N7" t="n">
-        <v>225.5568806921007</v>
+        <v>225.080904942241</v>
       </c>
       <c r="O7" t="n">
-        <v>15.01855121814686</v>
+        <v>15.00269658902162</v>
       </c>
       <c r="P7" t="n">
-        <v>262.2269803048003</v>
+        <v>262.1048149889885</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -29494,28 +29644,28 @@
         <v>0.0316</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0620968780415225</v>
+        <v>0.06803578283280844</v>
       </c>
       <c r="J8" t="n">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="K8" t="n">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="L8" t="n">
-        <v>0.001312878258409089</v>
+        <v>0.001595715214811722</v>
       </c>
       <c r="M8" t="n">
-        <v>10.00991773099953</v>
+        <v>9.980385582417169</v>
       </c>
       <c r="N8" t="n">
-        <v>156.860352270722</v>
+        <v>156.133350699118</v>
       </c>
       <c r="O8" t="n">
-        <v>12.52439029536855</v>
+        <v>12.4953331567877</v>
       </c>
       <c r="P8" t="n">
-        <v>255.0764665124961</v>
+        <v>255.0189396871442</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -29572,28 +29722,28 @@
         <v>0.031</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1234024043858021</v>
+        <v>0.1146049294374153</v>
       </c>
       <c r="J9" t="n">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="K9" t="n">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="L9" t="n">
-        <v>0.00557222463535112</v>
+        <v>0.004850976966684906</v>
       </c>
       <c r="M9" t="n">
-        <v>9.423598940807029</v>
+        <v>9.423807224538489</v>
       </c>
       <c r="N9" t="n">
-        <v>144.760265200509</v>
+        <v>144.6934556495776</v>
       </c>
       <c r="O9" t="n">
-        <v>12.03163601512733</v>
+        <v>12.0288592829735</v>
       </c>
       <c r="P9" t="n">
-        <v>249.7336475669964</v>
+        <v>249.8189234439481</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -29650,28 +29800,28 @@
         <v>0.0371</v>
       </c>
       <c r="I10" t="n">
-        <v>0.08512280725892329</v>
+        <v>0.07430856236796879</v>
       </c>
       <c r="J10" t="n">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="K10" t="n">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="L10" t="n">
-        <v>0.002986042317622117</v>
+        <v>0.002290857308080652</v>
       </c>
       <c r="M10" t="n">
-        <v>8.9930823405967</v>
+        <v>9.002636397963226</v>
       </c>
       <c r="N10" t="n">
-        <v>127.6773763223172</v>
+        <v>127.9662233378537</v>
       </c>
       <c r="O10" t="n">
-        <v>11.29944141638502</v>
+        <v>11.3122156688181</v>
       </c>
       <c r="P10" t="n">
-        <v>263.4154894948351</v>
+        <v>263.5204975695324</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -29728,28 +29878,28 @@
         <v>0.0436</v>
       </c>
       <c r="I11" t="n">
-        <v>0.006416572342109051</v>
+        <v>0.0279523459627487</v>
       </c>
       <c r="J11" t="n">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="K11" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="L11" t="n">
-        <v>1.939860730804099e-05</v>
+        <v>0.0003650341555130332</v>
       </c>
       <c r="M11" t="n">
-        <v>8.314014178401537</v>
+        <v>8.368290099102012</v>
       </c>
       <c r="N11" t="n">
-        <v>113.5926495654281</v>
+        <v>115.4389814808314</v>
       </c>
       <c r="O11" t="n">
-        <v>10.65798524888396</v>
+        <v>10.74425341663307</v>
       </c>
       <c r="P11" t="n">
-        <v>282.4641754360906</v>
+        <v>282.2556720037441</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -29806,28 +29956,28 @@
         <v>0.0426</v>
       </c>
       <c r="I12" t="n">
-        <v>0.01562837065800181</v>
+        <v>0.0326701028627337</v>
       </c>
       <c r="J12" t="n">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="K12" t="n">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0001147437628739034</v>
+        <v>0.0005009087008137625</v>
       </c>
       <c r="M12" t="n">
-        <v>8.334860575441249</v>
+        <v>8.363951975733439</v>
       </c>
       <c r="N12" t="n">
-        <v>110.450479627028</v>
+        <v>111.4217875737949</v>
       </c>
       <c r="O12" t="n">
-        <v>10.50954231291868</v>
+        <v>10.55565192557025</v>
       </c>
       <c r="P12" t="n">
-        <v>311.7679477515452</v>
+        <v>311.5995176096729</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -29884,28 +30034,28 @@
         <v>0.0457</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.05869555752280062</v>
+        <v>-0.05671628992900728</v>
       </c>
       <c r="J13" t="n">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="K13" t="n">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L13" t="n">
-        <v>0.001650040450635326</v>
+        <v>0.001550568781310657</v>
       </c>
       <c r="M13" t="n">
-        <v>8.284494313675207</v>
+        <v>8.270215539683974</v>
       </c>
       <c r="N13" t="n">
-        <v>109.3572608718595</v>
+        <v>109.0903827454648</v>
       </c>
       <c r="O13" t="n">
-        <v>10.45740220474758</v>
+        <v>10.44463416044166</v>
       </c>
       <c r="P13" t="n">
-        <v>301.4715923137621</v>
+        <v>301.452038318851</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -29962,28 +30112,28 @@
         <v>0.0453</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.1553723483744725</v>
+        <v>-0.1610463519911108</v>
       </c>
       <c r="J14" t="n">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="K14" t="n">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="L14" t="n">
-        <v>0.01409708326472003</v>
+        <v>0.01523144835288193</v>
       </c>
       <c r="M14" t="n">
-        <v>7.436324521101753</v>
+        <v>7.448458483572972</v>
       </c>
       <c r="N14" t="n">
-        <v>89.76985097933314</v>
+        <v>89.86012851577071</v>
       </c>
       <c r="O14" t="n">
-        <v>9.474695297440078</v>
+        <v>9.479458239571009</v>
       </c>
       <c r="P14" t="n">
-        <v>297.7529396257145</v>
+        <v>297.8081383519249</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -30040,28 +30190,28 @@
         <v>0.0672</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.3040199905220549</v>
+        <v>-0.299146913251228</v>
       </c>
       <c r="J15" t="n">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="K15" t="n">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="L15" t="n">
-        <v>0.07522211990075078</v>
+        <v>0.07380162819139791</v>
       </c>
       <c r="M15" t="n">
-        <v>5.994942673585279</v>
+        <v>5.982834979968257</v>
       </c>
       <c r="N15" t="n">
-        <v>61.09268651832215</v>
+        <v>60.86042781516802</v>
       </c>
       <c r="O15" t="n">
-        <v>7.816181069954953</v>
+        <v>7.801309365431423</v>
       </c>
       <c r="P15" t="n">
-        <v>308.7659205670291</v>
+        <v>308.7189449989722</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -30118,28 +30268,28 @@
         <v>0.0505</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.3861745984761893</v>
+        <v>-0.3863644209961117</v>
       </c>
       <c r="J16" t="n">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="K16" t="n">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="L16" t="n">
-        <v>0.1059131262748452</v>
+        <v>0.1071916495558722</v>
       </c>
       <c r="M16" t="n">
-        <v>6.251708053142514</v>
+        <v>6.237656388027951</v>
       </c>
       <c r="N16" t="n">
-        <v>67.77666477581634</v>
+        <v>67.47426942048051</v>
       </c>
       <c r="O16" t="n">
-        <v>8.232658427009852</v>
+        <v>8.214272300117674</v>
       </c>
       <c r="P16" t="n">
-        <v>315.4549685984186</v>
+        <v>315.4567853699367</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -30196,28 +30346,28 @@
         <v>0.0557</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.3773478193631029</v>
+        <v>-0.3741703936231519</v>
       </c>
       <c r="J17" t="n">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="K17" t="n">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="L17" t="n">
-        <v>0.103122897564264</v>
+        <v>0.1027129259811608</v>
       </c>
       <c r="M17" t="n">
-        <v>6.418388006933291</v>
+        <v>6.3989904526187</v>
       </c>
       <c r="N17" t="n">
-        <v>65.5812149816971</v>
+        <v>65.29047411653703</v>
       </c>
       <c r="O17" t="n">
-        <v>8.098222952086285</v>
+        <v>8.080252107238797</v>
       </c>
       <c r="P17" t="n">
-        <v>310.6326574257229</v>
+        <v>310.6017168572438</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -30274,28 +30424,28 @@
         <v>0.0475</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.3180755424061868</v>
+        <v>-0.3045773227477213</v>
       </c>
       <c r="J18" t="n">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="K18" t="n">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="L18" t="n">
-        <v>0.07964264841559932</v>
+        <v>0.07322645623774504</v>
       </c>
       <c r="M18" t="n">
-        <v>6.175953509955949</v>
+        <v>6.203133440690968</v>
       </c>
       <c r="N18" t="n">
-        <v>61.71004430296595</v>
+        <v>62.48979386281674</v>
       </c>
       <c r="O18" t="n">
-        <v>7.855574091240305</v>
+        <v>7.90504863127462</v>
       </c>
       <c r="P18" t="n">
-        <v>318.018744398398</v>
+        <v>317.8879407617406</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -30352,28 +30502,28 @@
         <v>0.0408</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.2563235860811847</v>
+        <v>-0.2522221032395094</v>
       </c>
       <c r="J19" t="n">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="K19" t="n">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="L19" t="n">
-        <v>0.05432932671437729</v>
+        <v>0.05334761127829513</v>
       </c>
       <c r="M19" t="n">
-        <v>6.22532443495638</v>
+        <v>6.205944408252714</v>
       </c>
       <c r="N19" t="n">
-        <v>61.34528404387288</v>
+        <v>61.07267831428292</v>
       </c>
       <c r="O19" t="n">
-        <v>7.832323029847076</v>
+        <v>7.81490104315358</v>
       </c>
       <c r="P19" t="n">
-        <v>319.9596568773637</v>
+        <v>319.919995023736</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -30411,7 +30561,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T400"/>
+  <dimension ref="A1:T402"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67123,6 +67273,206 @@
         </is>
       </c>
     </row>
+    <row r="401">
+      <c r="A401" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-16 21:53:29+00:00</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>-38.52825659311538,178.28903478854883</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>-38.52868949203101,178.2883279112218</t>
+        </is>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>-38.52902495848306,178.28752361003086</t>
+        </is>
+      </c>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t>-38.529422552685155,178.28678143526244</t>
+        </is>
+      </c>
+      <c r="F401" t="inlineStr">
+        <is>
+          <t>-38.529837513365955,178.2860566281397</t>
+        </is>
+      </c>
+      <c r="G401" t="inlineStr">
+        <is>
+          <t>-38.530342553630646,178.28533525646836</t>
+        </is>
+      </c>
+      <c r="H401" t="inlineStr">
+        <is>
+          <t>-38.530883127577944,178.28453836318926</t>
+        </is>
+      </c>
+      <c r="I401" t="inlineStr">
+        <is>
+          <t>-38.53146468196375,178.28386844696715</t>
+        </is>
+      </c>
+      <c r="J401" t="inlineStr">
+        <is>
+          <t>-38.532092150929024,178.28345161953925</t>
+        </is>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>-38.53277853036017,178.28314562194336</t>
+        </is>
+      </c>
+      <c r="L401" t="inlineStr">
+        <is>
+          <t>-38.53354895233863,178.282818576986</t>
+        </is>
+      </c>
+      <c r="M401" t="inlineStr">
+        <is>
+          <t>-38.5342979945269,178.28246339994007</t>
+        </is>
+      </c>
+      <c r="N401" t="inlineStr">
+        <is>
+          <t>-38.53498846396287,178.28224997356008</t>
+        </is>
+      </c>
+      <c r="O401" t="inlineStr">
+        <is>
+          <t>-38.53568201438415,178.28217437818125</t>
+        </is>
+      </c>
+      <c r="P401" t="inlineStr">
+        <is>
+          <t>-38.536355468270735,178.2819711464343</t>
+        </is>
+      </c>
+      <c r="Q401" t="inlineStr">
+        <is>
+          <t>-38.53704363429244,178.2818272321176</t>
+        </is>
+      </c>
+      <c r="R401" t="inlineStr">
+        <is>
+          <t>-38.5377402835035,178.28170746194996</t>
+        </is>
+      </c>
+      <c r="S401" t="inlineStr">
+        <is>
+          <t>-38.53842977006009,178.28153734928856</t>
+        </is>
+      </c>
+      <c r="T401" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-24 21:53:33+00:00</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>-38.52837902185315,178.2891572106007</t>
+        </is>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>-38.528716313696705,178.28835473128356</t>
+        </is>
+      </c>
+      <c r="D402" t="inlineStr">
+        <is>
+          <t>-38.52911473100255,178.287613376652</t>
+        </is>
+      </c>
+      <c r="E402" t="inlineStr">
+        <is>
+          <t>-38.529585931282064,178.28694480259162</t>
+        </is>
+      </c>
+      <c r="F402" t="inlineStr">
+        <is>
+          <t>-38.5297882642251,178.2860073827983</t>
+        </is>
+      </c>
+      <c r="G402" t="inlineStr">
+        <is>
+          <t>-38.530410977828495,178.28541363041805</t>
+        </is>
+      </c>
+      <c r="H402" t="inlineStr">
+        <is>
+          <t>-38.530871490856484,178.2845201252935</t>
+        </is>
+      </c>
+      <c r="I402" t="inlineStr">
+        <is>
+          <t>-38.531375797311384,178.2837012418297</t>
+        </is>
+      </c>
+      <c r="J402" t="inlineStr">
+        <is>
+          <t>-38.531992163453644,178.2832635275434</t>
+        </is>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>-38.53288729787608,178.2833502335518</t>
+        </is>
+      </c>
+      <c r="L402" t="inlineStr">
+        <is>
+          <t>-38.53360924184454,178.283015633242</t>
+        </is>
+      </c>
+      <c r="M402" t="inlineStr"/>
+      <c r="N402" t="inlineStr">
+        <is>
+          <t>-38.53496732072914,178.2820439047026</t>
+        </is>
+      </c>
+      <c r="O402" t="inlineStr">
+        <is>
+          <t>-38.535684256599524,178.28219400782086</t>
+        </is>
+      </c>
+      <c r="P402" t="inlineStr">
+        <is>
+          <t>-38.536366737942245,178.28205524004585</t>
+        </is>
+      </c>
+      <c r="Q402" t="inlineStr">
+        <is>
+          <t>-38.537036382855526,178.2817762188703</t>
+        </is>
+      </c>
+      <c r="R402" t="inlineStr">
+        <is>
+          <t>-38.53776838369859,178.2819051481215</t>
+        </is>
+      </c>
+      <c r="S402" t="inlineStr">
+        <is>
+          <t>-38.53843659385806,178.28158535513018</t>
+        </is>
+      </c>
+      <c r="T402" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0262/nzd0262.xlsx
+++ b/data/nzd0262/nzd0262.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T402"/>
+  <dimension ref="A1:T404"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24954,6 +24954,134 @@
         </is>
       </c>
     </row>
+    <row r="403">
+      <c r="A403" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-01 21:53:32+00:00</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr"/>
+      <c r="C403" t="n">
+        <v>257.7822222222222</v>
+      </c>
+      <c r="D403" t="n">
+        <v>260.66</v>
+      </c>
+      <c r="E403" t="n">
+        <v>258.8528571428571</v>
+      </c>
+      <c r="F403" t="n">
+        <v>256.2128571428572</v>
+      </c>
+      <c r="G403" t="n">
+        <v>263.2</v>
+      </c>
+      <c r="H403" t="n">
+        <v>255.8833333333333</v>
+      </c>
+      <c r="I403" t="n">
+        <v>255.3233333333333</v>
+      </c>
+      <c r="J403" t="n">
+        <v>262.0828571428572</v>
+      </c>
+      <c r="K403" t="n">
+        <v>272.46</v>
+      </c>
+      <c r="L403" t="n">
+        <v>312.24</v>
+      </c>
+      <c r="M403" t="n">
+        <v>300.51</v>
+      </c>
+      <c r="N403" t="n">
+        <v>292.95</v>
+      </c>
+      <c r="O403" t="n">
+        <v>298.2866666666667</v>
+      </c>
+      <c r="P403" t="n">
+        <v>295.4522222222222</v>
+      </c>
+      <c r="Q403" t="n">
+        <v>294.26</v>
+      </c>
+      <c r="R403" t="n">
+        <v>302.1422222222222</v>
+      </c>
+      <c r="S403" t="n">
+        <v>313.2728571428572</v>
+      </c>
+      <c r="T403" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-09 21:53:33+00:00</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr"/>
+      <c r="C404" t="n">
+        <v>237.03</v>
+      </c>
+      <c r="D404" t="n">
+        <v>252.8</v>
+      </c>
+      <c r="E404" t="n">
+        <v>250.3028571428572</v>
+      </c>
+      <c r="F404" t="n">
+        <v>250.2428571428572</v>
+      </c>
+      <c r="G404" t="n">
+        <v>245.14</v>
+      </c>
+      <c r="H404" t="n">
+        <v>244.76</v>
+      </c>
+      <c r="I404" t="n">
+        <v>242.52</v>
+      </c>
+      <c r="J404" t="n">
+        <v>252.3328571428572</v>
+      </c>
+      <c r="K404" t="n">
+        <v>273.92</v>
+      </c>
+      <c r="L404" t="n">
+        <v>301.11</v>
+      </c>
+      <c r="M404" t="n">
+        <v>287.03</v>
+      </c>
+      <c r="N404" t="n">
+        <v>278.93</v>
+      </c>
+      <c r="O404" t="n">
+        <v>292.98</v>
+      </c>
+      <c r="P404" t="n">
+        <v>301.82</v>
+      </c>
+      <c r="Q404" t="n">
+        <v>295.92</v>
+      </c>
+      <c r="R404" t="n">
+        <v>305.68</v>
+      </c>
+      <c r="S404" t="n">
+        <v>300.0328571428572</v>
+      </c>
+      <c r="T404" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -24965,7 +25093,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B403"/>
+  <dimension ref="A1:B405"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29003,6 +29131,26 @@
       </c>
       <c r="B403" t="n">
         <v>-0.76</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>2025-06-01 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B404" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>2025-06-09 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B405" t="n">
+        <v>-0.45</v>
       </c>
     </row>
   </sheetData>
@@ -29179,7 +29327,7 @@
         <v>-0.2701472486395184</v>
       </c>
       <c r="J2" t="n">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="K2" t="n">
         <v>213</v>
@@ -29254,28 +29402,28 @@
         <v>0.0558</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.3746082522616057</v>
+        <v>-0.3968400545008699</v>
       </c>
       <c r="J3" t="n">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="K3" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03336642199151696</v>
+        <v>0.03766618393210852</v>
       </c>
       <c r="M3" t="n">
-        <v>11.64577242547139</v>
+        <v>11.67191702186424</v>
       </c>
       <c r="N3" t="n">
-        <v>227.2447493449437</v>
+        <v>227.6961925894651</v>
       </c>
       <c r="O3" t="n">
-        <v>15.07463927744023</v>
+        <v>15.08960544843586</v>
       </c>
       <c r="P3" t="n">
-        <v>270.6341195316233</v>
+        <v>270.8374773138103</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -29332,28 +29480,28 @@
         <v>0.0463</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.2410472707080289</v>
+        <v>-0.2367592545298033</v>
       </c>
       <c r="J4" t="n">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="K4" t="n">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01626811517597482</v>
+        <v>0.01595980875974268</v>
       </c>
       <c r="M4" t="n">
-        <v>10.91931951600321</v>
+        <v>10.87169648917106</v>
       </c>
       <c r="N4" t="n">
-        <v>188.1361183273533</v>
+        <v>187.0607555369101</v>
       </c>
       <c r="O4" t="n">
-        <v>13.7162720273168</v>
+        <v>13.67701559321002</v>
       </c>
       <c r="P4" t="n">
-        <v>259.9796423975943</v>
+        <v>259.9391201551823</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -29410,28 +29558,28 @@
         <v>0.0399</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.2526495170611614</v>
+        <v>-0.254240148938063</v>
       </c>
       <c r="J5" t="n">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="K5" t="n">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01662597858294868</v>
+        <v>0.0170508623322414</v>
       </c>
       <c r="M5" t="n">
-        <v>11.40981994269166</v>
+        <v>11.37065233710083</v>
       </c>
       <c r="N5" t="n">
-        <v>200.6752010315444</v>
+        <v>199.6799066864234</v>
       </c>
       <c r="O5" t="n">
-        <v>14.16598747110643</v>
+        <v>14.13081408434855</v>
       </c>
       <c r="P5" t="n">
-        <v>262.462028714894</v>
+        <v>262.4775488255375</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -29488,28 +29636,28 @@
         <v>0.0378</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.161120316301983</v>
+        <v>-0.1689011791160121</v>
       </c>
       <c r="J6" t="n">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="K6" t="n">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="L6" t="n">
-        <v>0.007660103759017378</v>
+        <v>0.008512967370580715</v>
       </c>
       <c r="M6" t="n">
-        <v>10.76790942465487</v>
+        <v>10.74525847674682</v>
       </c>
       <c r="N6" t="n">
-        <v>183.3909684708244</v>
+        <v>182.623323500685</v>
       </c>
       <c r="O6" t="n">
-        <v>13.54219215898314</v>
+        <v>13.51381972281283</v>
       </c>
       <c r="P6" t="n">
-        <v>263.9173327308811</v>
+        <v>263.9927425857885</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -29566,28 +29714,28 @@
         <v>0.0273</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.002393195042837628</v>
+        <v>-0.01154348947304689</v>
       </c>
       <c r="J7" t="n">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="K7" t="n">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="L7" t="n">
-        <v>1.37226324481432e-06</v>
+        <v>3.224706474214134e-05</v>
       </c>
       <c r="M7" t="n">
-        <v>12.22009497202139</v>
+        <v>12.20692272713729</v>
       </c>
       <c r="N7" t="n">
-        <v>225.080904942241</v>
+        <v>224.6263602672587</v>
       </c>
       <c r="O7" t="n">
-        <v>15.00269658902162</v>
+        <v>14.98754016732762</v>
       </c>
       <c r="P7" t="n">
-        <v>262.1048149889885</v>
+        <v>262.1932451355643</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -29644,28 +29792,28 @@
         <v>0.0316</v>
       </c>
       <c r="I8" t="n">
-        <v>0.06803578283280844</v>
+        <v>0.06053651393444483</v>
       </c>
       <c r="J8" t="n">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="K8" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="L8" t="n">
-        <v>0.001595715214811722</v>
+        <v>0.001277514225563214</v>
       </c>
       <c r="M8" t="n">
-        <v>9.980385582417169</v>
+        <v>9.962724633926298</v>
       </c>
       <c r="N8" t="n">
-        <v>156.133350699118</v>
+        <v>155.6677607615401</v>
       </c>
       <c r="O8" t="n">
-        <v>12.4953331567877</v>
+        <v>12.4766886937817</v>
       </c>
       <c r="P8" t="n">
-        <v>255.0189396871442</v>
+        <v>255.091752300519</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -29722,28 +29870,28 @@
         <v>0.031</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1146049294374153</v>
+        <v>0.1101235248417524</v>
       </c>
       <c r="J9" t="n">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="K9" t="n">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="L9" t="n">
-        <v>0.004850976966684906</v>
+        <v>0.004531364923308967</v>
       </c>
       <c r="M9" t="n">
-        <v>9.423807224538489</v>
+        <v>9.409223485034088</v>
       </c>
       <c r="N9" t="n">
-        <v>144.6934556495776</v>
+        <v>144.2054925495176</v>
       </c>
       <c r="O9" t="n">
-        <v>12.0288592829735</v>
+        <v>12.00855913711206</v>
       </c>
       <c r="P9" t="n">
-        <v>249.8189234439481</v>
+        <v>249.8624525668787</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -29800,28 +29948,28 @@
         <v>0.0371</v>
       </c>
       <c r="I10" t="n">
-        <v>0.07430856236796879</v>
+        <v>0.06472116580074716</v>
       </c>
       <c r="J10" t="n">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="K10" t="n">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="L10" t="n">
-        <v>0.002290857308080652</v>
+        <v>0.001755691151057892</v>
       </c>
       <c r="M10" t="n">
-        <v>9.002636397963226</v>
+        <v>9.003033690066674</v>
       </c>
       <c r="N10" t="n">
-        <v>127.9662233378537</v>
+        <v>127.7616402661259</v>
       </c>
       <c r="O10" t="n">
-        <v>11.3122156688181</v>
+        <v>11.30316947878452</v>
       </c>
       <c r="P10" t="n">
-        <v>263.5204975695324</v>
+        <v>263.6137404971742</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -29878,28 +30026,28 @@
         <v>0.0436</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0279523459627487</v>
+        <v>0.01665775065514244</v>
       </c>
       <c r="J11" t="n">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="K11" t="n">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0003650341555130332</v>
+        <v>0.0001308165998589184</v>
       </c>
       <c r="M11" t="n">
-        <v>8.368290099102012</v>
+        <v>8.375343218405851</v>
       </c>
       <c r="N11" t="n">
-        <v>115.4389814808314</v>
+        <v>115.3243086793352</v>
       </c>
       <c r="O11" t="n">
-        <v>10.74425341663307</v>
+        <v>10.73891561934142</v>
       </c>
       <c r="P11" t="n">
-        <v>282.2556720037441</v>
+        <v>282.3651926101128</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -29956,28 +30104,28 @@
         <v>0.0426</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0326701028627337</v>
+        <v>0.02593081484946651</v>
       </c>
       <c r="J12" t="n">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="K12" t="n">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0005009087008137625</v>
+        <v>0.0003188772724940225</v>
       </c>
       <c r="M12" t="n">
-        <v>8.363951975733439</v>
+        <v>8.350812376529879</v>
       </c>
       <c r="N12" t="n">
-        <v>111.4217875737949</v>
+        <v>111.1621257858945</v>
       </c>
       <c r="O12" t="n">
-        <v>10.55565192557025</v>
+        <v>10.5433450946981</v>
       </c>
       <c r="P12" t="n">
-        <v>311.5995176096729</v>
+        <v>311.6662542490104</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -30034,28 +30182,28 @@
         <v>0.0457</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.05671628992900728</v>
+        <v>-0.06387288509679477</v>
       </c>
       <c r="J13" t="n">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="K13" t="n">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="L13" t="n">
-        <v>0.001550568781310657</v>
+        <v>0.001983408222994032</v>
       </c>
       <c r="M13" t="n">
-        <v>8.270215539683974</v>
+        <v>8.26534426600063</v>
       </c>
       <c r="N13" t="n">
-        <v>109.0903827454648</v>
+        <v>108.9507396844028</v>
       </c>
       <c r="O13" t="n">
-        <v>10.44463416044166</v>
+        <v>10.43794710105406</v>
       </c>
       <c r="P13" t="n">
-        <v>301.452038318851</v>
+        <v>301.522938430545</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -30112,28 +30260,28 @@
         <v>0.0453</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.1610463519911108</v>
+        <v>-0.1697055388395896</v>
       </c>
       <c r="J14" t="n">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="K14" t="n">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="L14" t="n">
-        <v>0.01523144835288193</v>
+        <v>0.01699491758652538</v>
       </c>
       <c r="M14" t="n">
-        <v>7.448458483572972</v>
+        <v>7.454897474408617</v>
       </c>
       <c r="N14" t="n">
-        <v>89.86012851577071</v>
+        <v>89.95309215160806</v>
       </c>
       <c r="O14" t="n">
-        <v>9.479458239571009</v>
+        <v>9.484360397602364</v>
       </c>
       <c r="P14" t="n">
-        <v>297.8081383519249</v>
+        <v>297.8924979561049</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -30190,28 +30338,28 @@
         <v>0.0672</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.299146913251228</v>
+        <v>-0.3052081406322756</v>
       </c>
       <c r="J15" t="n">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="K15" t="n">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="L15" t="n">
-        <v>0.07380162819139791</v>
+        <v>0.07730250384237258</v>
       </c>
       <c r="M15" t="n">
-        <v>5.982834979968257</v>
+        <v>5.982076034515613</v>
       </c>
       <c r="N15" t="n">
-        <v>60.86042781516802</v>
+        <v>60.72095594981813</v>
       </c>
       <c r="O15" t="n">
-        <v>7.801309365431423</v>
+        <v>7.792365234626655</v>
       </c>
       <c r="P15" t="n">
-        <v>308.7189449989722</v>
+        <v>308.7774911217642</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -30268,28 +30416,28 @@
         <v>0.0505</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.3863644209961117</v>
+        <v>-0.3942875098352164</v>
       </c>
       <c r="J16" t="n">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="K16" t="n">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="L16" t="n">
-        <v>0.1071916495558722</v>
+        <v>0.1120059044794808</v>
       </c>
       <c r="M16" t="n">
-        <v>6.237656388027951</v>
+        <v>6.245328206821394</v>
       </c>
       <c r="N16" t="n">
-        <v>67.47426942048051</v>
+        <v>67.40923395065207</v>
       </c>
       <c r="O16" t="n">
-        <v>8.214272300117674</v>
+        <v>8.210312658519898</v>
       </c>
       <c r="P16" t="n">
-        <v>315.4567853699367</v>
+        <v>315.5335847352242</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -30346,28 +30494,28 @@
         <v>0.0557</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.3741703936231519</v>
+        <v>-0.3808810310835686</v>
       </c>
       <c r="J17" t="n">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="K17" t="n">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="L17" t="n">
-        <v>0.1027129259811608</v>
+        <v>0.1070297310520336</v>
       </c>
       <c r="M17" t="n">
-        <v>6.3989904526187</v>
+        <v>6.393610455097545</v>
       </c>
       <c r="N17" t="n">
-        <v>65.29047411653703</v>
+        <v>65.1206401295175</v>
       </c>
       <c r="O17" t="n">
-        <v>8.080252107238797</v>
+        <v>8.069736063188033</v>
       </c>
       <c r="P17" t="n">
-        <v>310.6017168572438</v>
+        <v>310.6672030973225</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -30424,28 +30572,28 @@
         <v>0.0475</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.3045773227477213</v>
+        <v>-0.3116824009729225</v>
       </c>
       <c r="J18" t="n">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="K18" t="n">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="L18" t="n">
-        <v>0.07322645623774504</v>
+        <v>0.07713691326554484</v>
       </c>
       <c r="M18" t="n">
-        <v>6.203133440690968</v>
+        <v>6.202253940546479</v>
       </c>
       <c r="N18" t="n">
-        <v>62.48979386281674</v>
+        <v>62.36533085922242</v>
       </c>
       <c r="O18" t="n">
-        <v>7.90504863127462</v>
+        <v>7.897172333134336</v>
       </c>
       <c r="P18" t="n">
-        <v>317.8879407617406</v>
+        <v>317.956883017361</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -30502,28 +30650,28 @@
         <v>0.0408</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.2522221032395094</v>
+        <v>-0.2605004746752214</v>
       </c>
       <c r="J19" t="n">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="K19" t="n">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="L19" t="n">
-        <v>0.05334761127829513</v>
+        <v>0.05701043631881297</v>
       </c>
       <c r="M19" t="n">
-        <v>6.205944408252714</v>
+        <v>6.212450851017551</v>
       </c>
       <c r="N19" t="n">
-        <v>61.07267831428292</v>
+        <v>61.23244452791729</v>
       </c>
       <c r="O19" t="n">
-        <v>7.81490104315358</v>
+        <v>7.825116262900973</v>
       </c>
       <c r="P19" t="n">
-        <v>319.919995023736</v>
+        <v>320.0002102413443</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -30561,7 +30709,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T402"/>
+  <dimension ref="A1:T404"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49933,7 +50081,7 @@
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>-38.53200268543685,178.28328332097666</t>
+          <t>-38.53200268543686,178.28328332097666</t>
         </is>
       </c>
       <c r="K213" t="inlineStr">
@@ -53120,7 +53268,7 @@
       </c>
       <c r="K248" t="inlineStr">
         <is>
-          <t>-38.53277586028637,178.28314059906285</t>
+          <t>-38.532775860286364,178.28314059906285</t>
         </is>
       </c>
       <c r="L248" t="inlineStr">
@@ -57361,7 +57509,7 @@
       </c>
       <c r="L294" t="inlineStr">
         <is>
-          <t>-38.53351055347902,178.28269307107354</t>
+          <t>-38.53351055347901,178.28269307107354</t>
         </is>
       </c>
       <c r="M294" t="inlineStr"/>
@@ -64411,7 +64559,7 @@
       </c>
       <c r="R370" t="inlineStr">
         <is>
-          <t>-38.537707156522906,178.28147441539227</t>
+          <t>-38.53770715652291,178.28147441539227</t>
         </is>
       </c>
       <c r="S370" t="inlineStr"/>
@@ -67473,6 +67621,202 @@
         </is>
       </c>
     </row>
+    <row r="403">
+      <c r="A403" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-01 21:53:32+00:00</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr"/>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>-38.52859092332544,178.2882293486525</t>
+        </is>
+      </c>
+      <c r="D403" t="inlineStr">
+        <is>
+          <t>-38.52902375680309,178.28752240843195</t>
+        </is>
+      </c>
+      <c r="E403" t="inlineStr">
+        <is>
+          <t>-38.52942347162112,178.28678235413213</t>
+        </is>
+      </c>
+      <c r="F403" t="inlineStr">
+        <is>
+          <t>-38.529817296682594,178.28603641300455</t>
+        </is>
+      </c>
+      <c r="G403" t="inlineStr">
+        <is>
+          <t>-38.530314088076416,178.28530265172503</t>
+        </is>
+      </c>
+      <c r="H403" t="inlineStr">
+        <is>
+          <t>-38.53084421255496,178.28447737284637</t>
+        </is>
+      </c>
+      <c r="I403" t="inlineStr">
+        <is>
+          <t>-38.531469988501605,178.283878429376</t>
+        </is>
+      </c>
+      <c r="J403" t="inlineStr">
+        <is>
+          <t>-38.532070437705855,178.28341077349108</t>
+        </is>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>-38.53268910794469,178.28297740302733</t>
+        </is>
+      </c>
+      <c r="L403" t="inlineStr">
+        <is>
+          <t>-38.53353241181109,178.2827645145263</t>
+        </is>
+      </c>
+      <c r="M403" t="inlineStr">
+        <is>
+          <t>-38.534294470610305,178.2824312109893</t>
+        </is>
+      </c>
+      <c r="N403" t="inlineStr">
+        <is>
+          <t>-38.534982759052205,178.2821943712724</t>
+        </is>
+      </c>
+      <c r="O403" t="inlineStr">
+        <is>
+          <t>-38.53567426146708,178.28210650493398</t>
+        </is>
+      </c>
+      <c r="P403" t="inlineStr">
+        <is>
+          <t>-38.53634619413578,178.28190194376168</t>
+        </is>
+      </c>
+      <c r="Q403" t="inlineStr">
+        <is>
+          <t>-38.5370250494377,178.2816964895723</t>
+        </is>
+      </c>
+      <c r="R403" t="inlineStr">
+        <is>
+          <t>-38.53772383657367,178.2815917582239</t>
+        </is>
+      </c>
+      <c r="S403" t="inlineStr">
+        <is>
+          <t>-38.53842781713291,178.2815236103526</t>
+        </is>
+      </c>
+      <c r="T403" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-09 21:53:33+00:00</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr"/>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>-38.52844423247918,178.28808266764156</t>
+        </is>
+      </c>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t>-38.52896819675909,178.28746685219886</t>
+        </is>
+      </c>
+      <c r="E404" t="inlineStr">
+        <is>
+          <t>-38.52936303388953,178.286721920831</t>
+        </is>
+      </c>
+      <c r="F404" t="inlineStr">
+        <is>
+          <t>-38.52977509610923,178.2859942157144</t>
+        </is>
+      </c>
+      <c r="G404" t="inlineStr">
+        <is>
+          <t>-38.53019341004077,178.28516442627193</t>
+        </is>
+      </c>
+      <c r="H404" t="inlineStr">
+        <is>
+          <t>-38.53078117391783,178.28437857454975</t>
+        </is>
+      </c>
+      <c r="I404" t="inlineStr">
+        <is>
+          <t>-38.53140548713274,178.28375709266066</t>
+        </is>
+      </c>
+      <c r="J404" t="inlineStr">
+        <is>
+          <t>-38.53202131840603,178.2833183724258</t>
+        </is>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>-38.53269646326356,178.28299123961025</t>
+        </is>
+      </c>
+      <c r="L404" t="inlineStr">
+        <is>
+          <t>-38.533496100854556,178.28264583311062</t>
+        </is>
+      </c>
+      <c r="M404" t="inlineStr">
+        <is>
+          <t>-38.5342777442902,178.2822784268439</t>
+        </is>
+      </c>
+      <c r="N404" t="inlineStr">
+        <is>
+          <t>-38.53496643587201,178.28203528067723</t>
+        </is>
+      </c>
+      <c r="O404" t="inlineStr">
+        <is>
+          <t>-38.53566739678139,178.28204640805168</t>
+        </is>
+      </c>
+      <c r="P404" t="inlineStr">
+        <is>
+          <t>-38.53635582102635,178.28197377866806</t>
+        </is>
+      </c>
+      <c r="Q404" t="inlineStr">
+        <is>
+          <t>-38.53702770671303,178.28171518316307</t>
+        </is>
+      </c>
+      <c r="R404" t="inlineStr">
+        <is>
+          <t>-38.5377294997237,178.28163159823922</t>
+        </is>
+      </c>
+      <c r="S404" t="inlineStr">
+        <is>
+          <t>-38.53840662296313,178.28137450914943</t>
+        </is>
+      </c>
+      <c r="T404" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0262/nzd0262.xlsx
+++ b/data/nzd0262/nzd0262.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T404"/>
+  <dimension ref="A1:T406"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25082,6 +25082,130 @@
         </is>
       </c>
     </row>
+    <row r="405">
+      <c r="A405" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-17 21:53:44+00:00</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr"/>
+      <c r="C405" t="inlineStr"/>
+      <c r="D405" t="n">
+        <v>249.05</v>
+      </c>
+      <c r="E405" t="n">
+        <v>256.82</v>
+      </c>
+      <c r="F405" t="n">
+        <v>260.72</v>
+      </c>
+      <c r="G405" t="n">
+        <v>261.89</v>
+      </c>
+      <c r="H405" t="n">
+        <v>257.38</v>
+      </c>
+      <c r="I405" t="n">
+        <v>256.58</v>
+      </c>
+      <c r="J405" t="n">
+        <v>270.81</v>
+      </c>
+      <c r="K405" t="n">
+        <v>292.18</v>
+      </c>
+      <c r="L405" t="n">
+        <v>315.91</v>
+      </c>
+      <c r="M405" t="n">
+        <v>305.29</v>
+      </c>
+      <c r="N405" t="n">
+        <v>294.31</v>
+      </c>
+      <c r="O405" t="n">
+        <v>302.21</v>
+      </c>
+      <c r="P405" t="n">
+        <v>310.5133333333333</v>
+      </c>
+      <c r="Q405" t="n">
+        <v>303.47</v>
+      </c>
+      <c r="R405" t="n">
+        <v>305.9733333333333</v>
+      </c>
+      <c r="S405" t="n">
+        <v>313.08</v>
+      </c>
+      <c r="T405" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-25 21:53:45+00:00</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr"/>
+      <c r="C406" t="inlineStr"/>
+      <c r="D406" t="n">
+        <v>229.53</v>
+      </c>
+      <c r="E406" t="n">
+        <v>243.8657142857143</v>
+      </c>
+      <c r="F406" t="n">
+        <v>248.1257142857143</v>
+      </c>
+      <c r="G406" t="n">
+        <v>249.48</v>
+      </c>
+      <c r="H406" t="n">
+        <v>243.9066666666667</v>
+      </c>
+      <c r="I406" t="n">
+        <v>248.4666666666667</v>
+      </c>
+      <c r="J406" t="n">
+        <v>258.2857142857143</v>
+      </c>
+      <c r="K406" t="n">
+        <v>279.26</v>
+      </c>
+      <c r="L406" t="n">
+        <v>307.35</v>
+      </c>
+      <c r="M406" t="n">
+        <v>296.25</v>
+      </c>
+      <c r="N406" t="n">
+        <v>284.1</v>
+      </c>
+      <c r="O406" t="n">
+        <v>297.2833333333333</v>
+      </c>
+      <c r="P406" t="n">
+        <v>303.5344444444444</v>
+      </c>
+      <c r="Q406" t="n">
+        <v>296.82</v>
+      </c>
+      <c r="R406" t="n">
+        <v>309.7244444444444</v>
+      </c>
+      <c r="S406" t="n">
+        <v>305.7557142857143</v>
+      </c>
+      <c r="T406" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -25093,7 +25217,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B405"/>
+  <dimension ref="A1:B407"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29151,6 +29275,26 @@
       </c>
       <c r="B405" t="n">
         <v>-0.45</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>2025-06-17 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B406" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>2025-06-25 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B407" t="n">
+        <v>-0.34</v>
       </c>
     </row>
   </sheetData>
@@ -29327,7 +29471,7 @@
         <v>-0.2701472486395184</v>
       </c>
       <c r="J2" t="n">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="K2" t="n">
         <v>213</v>
@@ -29405,7 +29549,7 @@
         <v>-0.3968400545008699</v>
       </c>
       <c r="J3" t="n">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="K3" t="n">
         <v>259</v>
@@ -29480,28 +29624,28 @@
         <v>0.0463</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.2367592545298033</v>
+        <v>-0.2572135546043605</v>
       </c>
       <c r="J4" t="n">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="K4" t="n">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01595980875974268</v>
+        <v>0.01890110218102614</v>
       </c>
       <c r="M4" t="n">
-        <v>10.87169648917106</v>
+        <v>10.90159831938887</v>
       </c>
       <c r="N4" t="n">
-        <v>187.0607555369101</v>
+        <v>187.8024890598113</v>
       </c>
       <c r="O4" t="n">
-        <v>13.67701559321002</v>
+        <v>13.70410482519056</v>
       </c>
       <c r="P4" t="n">
-        <v>259.9391201551823</v>
+        <v>260.1329315413594</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -29558,28 +29702,28 @@
         <v>0.0399</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.254240148938063</v>
+        <v>-0.2606811588979408</v>
       </c>
       <c r="J5" t="n">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="K5" t="n">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0170508623322414</v>
+        <v>0.01811260823893601</v>
       </c>
       <c r="M5" t="n">
-        <v>11.37065233710083</v>
+        <v>11.34467160107752</v>
       </c>
       <c r="N5" t="n">
-        <v>199.6799066864234</v>
+        <v>198.9807238009725</v>
       </c>
       <c r="O5" t="n">
-        <v>14.13081408434855</v>
+        <v>14.10605273636011</v>
       </c>
       <c r="P5" t="n">
-        <v>262.4775488255375</v>
+        <v>262.5404526212898</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -29636,28 +29780,28 @@
         <v>0.0378</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.1689011791160121</v>
+        <v>-0.1750067435971882</v>
       </c>
       <c r="J6" t="n">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="K6" t="n">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="L6" t="n">
-        <v>0.008512967370580715</v>
+        <v>0.009237374868072634</v>
       </c>
       <c r="M6" t="n">
-        <v>10.74525847674682</v>
+        <v>10.72172422062533</v>
       </c>
       <c r="N6" t="n">
-        <v>182.623323500685</v>
+        <v>181.953474504156</v>
       </c>
       <c r="O6" t="n">
-        <v>13.51381972281283</v>
+        <v>13.48901310341702</v>
       </c>
       <c r="P6" t="n">
-        <v>263.9927425857885</v>
+        <v>264.0520516924971</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -29714,28 +29858,28 @@
         <v>0.0273</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.01154348947304689</v>
+        <v>-0.01865188255026831</v>
       </c>
       <c r="J7" t="n">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="K7" t="n">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="L7" t="n">
-        <v>3.224706474214134e-05</v>
+        <v>8.515177783119388e-05</v>
       </c>
       <c r="M7" t="n">
-        <v>12.20692272713729</v>
+        <v>12.17785263659296</v>
       </c>
       <c r="N7" t="n">
-        <v>224.6263602672587</v>
+        <v>223.8160252546224</v>
       </c>
       <c r="O7" t="n">
-        <v>14.98754016732762</v>
+        <v>14.96048211972537</v>
       </c>
       <c r="P7" t="n">
-        <v>262.1932451355643</v>
+        <v>262.2620654094819</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -29792,28 +29936,28 @@
         <v>0.0316</v>
       </c>
       <c r="I8" t="n">
-        <v>0.06053651393444483</v>
+        <v>0.05364986430952111</v>
       </c>
       <c r="J8" t="n">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="K8" t="n">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="L8" t="n">
-        <v>0.001277514225563214</v>
+        <v>0.001014055599116048</v>
       </c>
       <c r="M8" t="n">
-        <v>9.962724633926298</v>
+        <v>9.94679992939562</v>
       </c>
       <c r="N8" t="n">
-        <v>155.6677607615401</v>
+        <v>155.2571251540432</v>
       </c>
       <c r="O8" t="n">
-        <v>12.4766886937817</v>
+        <v>12.46022171367922</v>
       </c>
       <c r="P8" t="n">
-        <v>255.091752300519</v>
+        <v>255.1587507143403</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -29870,28 +30014,28 @@
         <v>0.031</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1101235248417524</v>
+        <v>0.1098979946973134</v>
       </c>
       <c r="J9" t="n">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="K9" t="n">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="L9" t="n">
-        <v>0.004531364923308967</v>
+        <v>0.004569716554307379</v>
       </c>
       <c r="M9" t="n">
-        <v>9.409223485034088</v>
+        <v>9.3801587729027</v>
       </c>
       <c r="N9" t="n">
-        <v>144.2054925495176</v>
+        <v>143.5095669847068</v>
       </c>
       <c r="O9" t="n">
-        <v>12.00855913711206</v>
+        <v>11.97954786228207</v>
       </c>
       <c r="P9" t="n">
-        <v>249.8624525668787</v>
+        <v>249.8646667841791</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -29948,28 +30092,28 @@
         <v>0.0371</v>
       </c>
       <c r="I10" t="n">
-        <v>0.06472116580074716</v>
+        <v>0.06386197035933686</v>
       </c>
       <c r="J10" t="n">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="K10" t="n">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="L10" t="n">
-        <v>0.001755691151057892</v>
+        <v>0.001729396216594847</v>
       </c>
       <c r="M10" t="n">
-        <v>9.003033690066674</v>
+        <v>8.988625387301067</v>
       </c>
       <c r="N10" t="n">
-        <v>127.7616402661259</v>
+        <v>127.2859873694574</v>
       </c>
       <c r="O10" t="n">
-        <v>11.30316947878452</v>
+        <v>11.28210917202353</v>
       </c>
       <c r="P10" t="n">
-        <v>263.6137404971742</v>
+        <v>263.6221419866426</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -30026,28 +30170,28 @@
         <v>0.0436</v>
       </c>
       <c r="I11" t="n">
-        <v>0.01665775065514244</v>
+        <v>0.01997405554248925</v>
       </c>
       <c r="J11" t="n">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="K11" t="n">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0001308165998589184</v>
+        <v>0.0001901071834871093</v>
       </c>
       <c r="M11" t="n">
-        <v>8.375343218405851</v>
+        <v>8.365097078277149</v>
       </c>
       <c r="N11" t="n">
-        <v>115.3243086793352</v>
+        <v>114.9680061923479</v>
       </c>
       <c r="O11" t="n">
-        <v>10.73891561934142</v>
+        <v>10.72231347202402</v>
       </c>
       <c r="P11" t="n">
-        <v>282.3651926101128</v>
+        <v>282.3330077436156</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -30104,28 +30248,28 @@
         <v>0.0426</v>
       </c>
       <c r="I12" t="n">
-        <v>0.02593081484946651</v>
+        <v>0.02511144760920673</v>
       </c>
       <c r="J12" t="n">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="K12" t="n">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0003188772724940225</v>
+        <v>0.0003027303526716985</v>
       </c>
       <c r="M12" t="n">
-        <v>8.350812376529879</v>
+        <v>8.328924613020224</v>
       </c>
       <c r="N12" t="n">
-        <v>111.1621257858945</v>
+        <v>110.6629434499862</v>
       </c>
       <c r="O12" t="n">
-        <v>10.5433450946981</v>
+        <v>10.51964559526537</v>
       </c>
       <c r="P12" t="n">
-        <v>311.6662542490104</v>
+        <v>311.6744016990634</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -30182,28 +30326,28 @@
         <v>0.0457</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.06387288509679477</v>
+        <v>-0.06285418998332454</v>
       </c>
       <c r="J13" t="n">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="K13" t="n">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="L13" t="n">
-        <v>0.001983408222994032</v>
+        <v>0.001943620943224644</v>
       </c>
       <c r="M13" t="n">
-        <v>8.26534426600063</v>
+        <v>8.244664850771542</v>
       </c>
       <c r="N13" t="n">
-        <v>108.9507396844028</v>
+        <v>108.4778213493123</v>
       </c>
       <c r="O13" t="n">
-        <v>10.43794710105406</v>
+        <v>10.41526866428861</v>
       </c>
       <c r="P13" t="n">
-        <v>301.522938430545</v>
+        <v>301.5128564420232</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -30260,28 +30404,28 @@
         <v>0.0453</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.1697055388395896</v>
+        <v>-0.1744609198422704</v>
       </c>
       <c r="J14" t="n">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="K14" t="n">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="L14" t="n">
-        <v>0.01699491758652538</v>
+        <v>0.01812325828570271</v>
       </c>
       <c r="M14" t="n">
-        <v>7.454897474408617</v>
+        <v>7.445515851276139</v>
       </c>
       <c r="N14" t="n">
-        <v>89.95309215160806</v>
+        <v>89.7104967938765</v>
       </c>
       <c r="O14" t="n">
-        <v>9.484360397602364</v>
+        <v>9.471562531804164</v>
       </c>
       <c r="P14" t="n">
-        <v>297.8924979561049</v>
+        <v>297.9389183144431</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -30338,28 +30482,28 @@
         <v>0.0672</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.3052081406322756</v>
+        <v>-0.3064612888550992</v>
       </c>
       <c r="J15" t="n">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="K15" t="n">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="L15" t="n">
-        <v>0.07730250384237258</v>
+        <v>0.07877566634854682</v>
       </c>
       <c r="M15" t="n">
-        <v>5.982076034515613</v>
+        <v>5.963773100669956</v>
       </c>
       <c r="N15" t="n">
-        <v>60.72095594981813</v>
+        <v>60.4336466120554</v>
       </c>
       <c r="O15" t="n">
-        <v>7.792365234626655</v>
+        <v>7.773908065577789</v>
       </c>
       <c r="P15" t="n">
-        <v>308.7774911217642</v>
+        <v>308.789628032642</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -30416,28 +30560,28 @@
         <v>0.0505</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.3942875098352164</v>
+        <v>-0.392332737238566</v>
       </c>
       <c r="J16" t="n">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="K16" t="n">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="L16" t="n">
-        <v>0.1120059044794808</v>
+        <v>0.1122022848181269</v>
       </c>
       <c r="M16" t="n">
-        <v>6.245328206821394</v>
+        <v>6.228719879308964</v>
       </c>
       <c r="N16" t="n">
-        <v>67.40923395065207</v>
+        <v>67.11817990580761</v>
       </c>
       <c r="O16" t="n">
-        <v>8.210312658519898</v>
+        <v>8.192568578035072</v>
       </c>
       <c r="P16" t="n">
-        <v>315.5335847352242</v>
+        <v>315.5146152957283</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -30494,28 +30638,28 @@
         <v>0.0557</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.3808810310835686</v>
+        <v>-0.3816210850686506</v>
       </c>
       <c r="J17" t="n">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="K17" t="n">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="L17" t="n">
-        <v>0.1070297310520336</v>
+        <v>0.1085682503259426</v>
       </c>
       <c r="M17" t="n">
-        <v>6.393610455097545</v>
+        <v>6.376751204464288</v>
       </c>
       <c r="N17" t="n">
-        <v>65.1206401295175</v>
+        <v>64.83048183503861</v>
       </c>
       <c r="O17" t="n">
-        <v>8.069736063188033</v>
+        <v>8.051737814598697</v>
       </c>
       <c r="P17" t="n">
-        <v>310.6672030973225</v>
+        <v>310.6744560931537</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -30572,28 +30716,28 @@
         <v>0.0475</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.3116824009729225</v>
+        <v>-0.3140105934040053</v>
       </c>
       <c r="J18" t="n">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="K18" t="n">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="L18" t="n">
-        <v>0.07713691326554484</v>
+        <v>0.07912392604938545</v>
       </c>
       <c r="M18" t="n">
-        <v>6.202253940546479</v>
+        <v>6.179565996264516</v>
       </c>
       <c r="N18" t="n">
-        <v>62.36533085922242</v>
+        <v>62.06913526728842</v>
       </c>
       <c r="O18" t="n">
-        <v>7.897172333134336</v>
+        <v>7.878396744724679</v>
       </c>
       <c r="P18" t="n">
-        <v>317.956883017361</v>
+        <v>317.9795084765468</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -30650,28 +30794,28 @@
         <v>0.0408</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.2605004746752214</v>
+        <v>-0.2651296435494599</v>
       </c>
       <c r="J19" t="n">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="K19" t="n">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="L19" t="n">
-        <v>0.05701043631881297</v>
+        <v>0.05956266971288526</v>
       </c>
       <c r="M19" t="n">
-        <v>6.212450851017551</v>
+        <v>6.20068217483091</v>
       </c>
       <c r="N19" t="n">
-        <v>61.23244452791729</v>
+        <v>61.03732312663093</v>
       </c>
       <c r="O19" t="n">
-        <v>7.825116262900973</v>
+        <v>7.812638678873542</v>
       </c>
       <c r="P19" t="n">
-        <v>320.0002102413443</v>
+        <v>320.0451499464521</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -30709,7 +30853,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T404"/>
+  <dimension ref="A1:T406"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67817,6 +67961,194 @@
         </is>
       </c>
     </row>
+    <row r="405">
+      <c r="A405" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-17 21:53:44+00:00</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr"/>
+      <c r="C405" t="inlineStr"/>
+      <c r="D405" t="inlineStr">
+        <is>
+          <t>-38.52894168909291,178.28744034639342</t>
+        </is>
+      </c>
+      <c r="E405" t="inlineStr">
+        <is>
+          <t>-38.52940910188496,178.28676798543643</t>
+        </is>
+      </c>
+      <c r="F405" t="inlineStr">
+        <is>
+          <t>-38.52984915663866,178.286068270528</t>
+        </is>
+      </c>
+      <c r="G405" t="inlineStr">
+        <is>
+          <t>-38.53030533458217,178.28529262538905</t>
+        </is>
+      </c>
+      <c r="H405" t="inlineStr">
+        <is>
+          <t>-38.53085269452184,178.28449066636705</t>
+        </is>
+      </c>
+      <c r="I405" t="inlineStr">
+        <is>
+          <t>-38.53147631940154,178.28389033877073</t>
+        </is>
+      </c>
+      <c r="J405" t="inlineStr">
+        <is>
+          <t>-38.53211440390734,178.28349348100937</t>
+        </is>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>-38.53278845497196,178.28316429189863</t>
+        </is>
+      </c>
+      <c r="L405" t="inlineStr">
+        <is>
+          <t>-38.53354438493725,178.28280364849388</t>
+        </is>
+      </c>
+      <c r="M405" t="inlineStr">
+        <is>
+          <t>-38.53430040170413,178.28248538816823</t>
+        </is>
+      </c>
+      <c r="N405" t="inlineStr">
+        <is>
+          <t>-38.5349843424587,178.28220980374348</t>
+        </is>
+      </c>
+      <c r="O405" t="inlineStr">
+        <is>
+          <t>-38.53567933665709,178.28215093586277</t>
+        </is>
+      </c>
+      <c r="P405" t="inlineStr">
+        <is>
+          <t>-38.536368963648776,178.28207184819172</t>
+        </is>
+      </c>
+      <c r="Q405" t="inlineStr">
+        <is>
+          <t>-38.53703979247444,178.28180020523067</t>
+        </is>
+      </c>
+      <c r="R405" t="inlineStr">
+        <is>
+          <t>-38.53772996928074,178.28163490155728</t>
+        </is>
+      </c>
+      <c r="S405" t="inlineStr">
+        <is>
+          <t>-38.53842750841477,178.28152143850681</t>
+        </is>
+      </c>
+      <c r="T405" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-25 21:53:45+00:00</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr"/>
+      <c r="C406" t="inlineStr"/>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>-38.52880370773359,178.28730237516353</t>
+        </is>
+      </c>
+      <c r="E406" t="inlineStr">
+        <is>
+          <t>-38.529317531371184,178.28667642174256</t>
+        </is>
+      </c>
+      <c r="F406" t="inlineStr">
+        <is>
+          <t>-38.52976013050292,178.28597925128915</t>
+        </is>
+      </c>
+      <c r="G406" t="inlineStr">
+        <is>
+          <t>-38.53022241020699,178.2851976431985</t>
+        </is>
+      </c>
+      <c r="H406" t="inlineStr">
+        <is>
+          <t>-38.53077633786616,178.28437099518493</t>
+        </is>
+      </c>
+      <c r="I406" t="inlineStr">
+        <is>
+          <t>-38.5314354456097,178.2838134489741</t>
+        </is>
+      </c>
+      <c r="J406" t="inlineStr">
+        <is>
+          <t>-38.532051308177365,178.28337478783095</t>
+        </is>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>-38.532723365578434,178.28304184740946</t>
+        </is>
+      </c>
+      <c r="L406" t="inlineStr">
+        <is>
+          <t>-38.53351645849575,178.28271237146512</t>
+        </is>
+      </c>
+      <c r="M406" t="inlineStr">
+        <is>
+          <t>-38.53428918471829,178.28238292756717</t>
+        </is>
+      </c>
+      <c r="N406" t="inlineStr">
+        <is>
+          <t>-38.53497245521613,178.28209394674707</t>
+        </is>
+      </c>
+      <c r="O406" t="inlineStr">
+        <is>
+          <t>-38.53567296356098,178.2820951423947</t>
+        </is>
+      </c>
+      <c r="P406" t="inlineStr">
+        <is>
+          <t>-38.5363584129383,178.28199311931974</t>
+        </is>
+      </c>
+      <c r="Q406" t="inlineStr">
+        <is>
+          <t>-38.53702914740319,178.28172531824282</t>
+        </is>
+      </c>
+      <c r="R406" t="inlineStr">
+        <is>
+          <t>-38.53773597391068,178.28167714399126</t>
+        </is>
+      </c>
+      <c r="S406" t="inlineStr">
+        <is>
+          <t>-38.538415783954534,178.28143895664016</t>
+        </is>
+      </c>
+      <c r="T406" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0262/nzd0262.xlsx
+++ b/data/nzd0262/nzd0262.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T406"/>
+  <dimension ref="A1:T408"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25206,6 +25206,116 @@
         </is>
       </c>
     </row>
+    <row r="407">
+      <c r="A407" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-03 21:53:50+00:00</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr"/>
+      <c r="C407" t="n">
+        <v>288.7811111111111</v>
+      </c>
+      <c r="D407" t="inlineStr"/>
+      <c r="E407" t="n">
+        <v>205.8871428571429</v>
+      </c>
+      <c r="F407" t="inlineStr"/>
+      <c r="G407" t="inlineStr"/>
+      <c r="H407" t="inlineStr"/>
+      <c r="I407" t="inlineStr"/>
+      <c r="J407" t="inlineStr"/>
+      <c r="K407" t="n">
+        <v>281.05</v>
+      </c>
+      <c r="L407" t="n">
+        <v>315.89</v>
+      </c>
+      <c r="M407" t="n">
+        <v>320.9</v>
+      </c>
+      <c r="N407" t="n">
+        <v>332.91</v>
+      </c>
+      <c r="O407" t="n">
+        <v>329.7133333333333</v>
+      </c>
+      <c r="P407" t="inlineStr"/>
+      <c r="Q407" t="inlineStr"/>
+      <c r="R407" t="inlineStr"/>
+      <c r="S407" t="n">
+        <v>308.2671428571429</v>
+      </c>
+      <c r="T407" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-27 21:53:57+00:00</t>
+        </is>
+      </c>
+      <c r="B408" t="n">
+        <v>257.49</v>
+      </c>
+      <c r="C408" t="n">
+        <v>255.5011111111111</v>
+      </c>
+      <c r="D408" t="n">
+        <v>250</v>
+      </c>
+      <c r="E408" t="inlineStr"/>
+      <c r="F408" t="n">
+        <v>256.4342857142857</v>
+      </c>
+      <c r="G408" t="n">
+        <v>263.57</v>
+      </c>
+      <c r="H408" t="n">
+        <v>257.9366666666667</v>
+      </c>
+      <c r="I408" t="n">
+        <v>252.2866666666666</v>
+      </c>
+      <c r="J408" t="n">
+        <v>271.6842857142857</v>
+      </c>
+      <c r="K408" t="n">
+        <v>282.77</v>
+      </c>
+      <c r="L408" t="n">
+        <v>315.77</v>
+      </c>
+      <c r="M408" t="n">
+        <v>308.1</v>
+      </c>
+      <c r="N408" t="n">
+        <v>294.77</v>
+      </c>
+      <c r="O408" t="n">
+        <v>301.0433333333333</v>
+      </c>
+      <c r="P408" t="n">
+        <v>307.2011111111111</v>
+      </c>
+      <c r="Q408" t="n">
+        <v>302.68</v>
+      </c>
+      <c r="R408" t="n">
+        <v>307.2111111111111</v>
+      </c>
+      <c r="S408" t="n">
+        <v>314.4642857142857</v>
+      </c>
+      <c r="T408" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -25217,7 +25327,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B407"/>
+  <dimension ref="A1:B409"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29295,6 +29405,26 @@
       </c>
       <c r="B407" t="n">
         <v>-0.34</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>2025-07-03 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B408" t="n">
+        <v>-0.04</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>2025-07-27 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B409" t="n">
+        <v>0.41</v>
       </c>
     </row>
   </sheetData>
@@ -29468,28 +29598,28 @@
         <v>0.0569</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.2701472486395184</v>
+        <v>-0.2943185657519127</v>
       </c>
       <c r="J2" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K2" t="n">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01423697885306086</v>
+        <v>0.01690115059164876</v>
       </c>
       <c r="M2" t="n">
-        <v>13.2576647920481</v>
+        <v>13.32036880419517</v>
       </c>
       <c r="N2" t="n">
-        <v>288.6261197990026</v>
+        <v>289.9985373602914</v>
       </c>
       <c r="O2" t="n">
-        <v>16.98899996465368</v>
+        <v>17.02934342129172</v>
       </c>
       <c r="P2" t="n">
-        <v>288.8563274177022</v>
+        <v>289.0758699380074</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -29546,28 +29676,28 @@
         <v>0.0558</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.3968400545008699</v>
+        <v>-0.3781915231897651</v>
       </c>
       <c r="J3" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K3" t="n">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03766618393210852</v>
+        <v>0.03452824200789062</v>
       </c>
       <c r="M3" t="n">
-        <v>11.67191702186424</v>
+        <v>11.70016509822554</v>
       </c>
       <c r="N3" t="n">
-        <v>227.6961925894651</v>
+        <v>229.0760483771367</v>
       </c>
       <c r="O3" t="n">
-        <v>15.08960544843586</v>
+        <v>15.13525845095275</v>
       </c>
       <c r="P3" t="n">
-        <v>270.8374773138103</v>
+        <v>270.6665135397097</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -29624,28 +29754,28 @@
         <v>0.0463</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.2572135546043605</v>
+        <v>-0.259628318604518</v>
       </c>
       <c r="J4" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K4" t="n">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01890110218102614</v>
+        <v>0.01940626136750467</v>
       </c>
       <c r="M4" t="n">
-        <v>10.90159831938887</v>
+        <v>10.87796716787108</v>
       </c>
       <c r="N4" t="n">
-        <v>187.8024890598113</v>
+        <v>187.2307183919135</v>
       </c>
       <c r="O4" t="n">
-        <v>13.70410482519056</v>
+        <v>13.68322763064013</v>
       </c>
       <c r="P4" t="n">
-        <v>260.1329315413594</v>
+        <v>260.1558976135273</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -29702,28 +29832,28 @@
         <v>0.0399</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.2606811588979408</v>
+        <v>-0.2894392112840489</v>
       </c>
       <c r="J5" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K5" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01811260823893601</v>
+        <v>0.02166142707235086</v>
       </c>
       <c r="M5" t="n">
-        <v>11.34467160107752</v>
+        <v>11.45721651718087</v>
       </c>
       <c r="N5" t="n">
-        <v>198.9807238009725</v>
+        <v>205.1734998989564</v>
       </c>
       <c r="O5" t="n">
-        <v>14.10605273636011</v>
+        <v>14.32387866113632</v>
       </c>
       <c r="P5" t="n">
-        <v>262.5404526212898</v>
+        <v>262.821544991961</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -29780,28 +29910,28 @@
         <v>0.0378</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.1750067435971882</v>
+        <v>-0.1768046597867902</v>
       </c>
       <c r="J6" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K6" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L6" t="n">
-        <v>0.009237374868072634</v>
+        <v>0.009487958453511469</v>
       </c>
       <c r="M6" t="n">
-        <v>10.72172422062533</v>
+        <v>10.70029881366879</v>
       </c>
       <c r="N6" t="n">
-        <v>181.953474504156</v>
+        <v>181.4587609646727</v>
       </c>
       <c r="O6" t="n">
-        <v>13.48901310341702</v>
+        <v>13.47066297420705</v>
       </c>
       <c r="P6" t="n">
-        <v>264.0520516924971</v>
+        <v>264.069582163611</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -29858,28 +29988,28 @@
         <v>0.0273</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.01865188255026831</v>
+        <v>-0.01762717160394596</v>
       </c>
       <c r="J7" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K7" t="n">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L7" t="n">
-        <v>8.515177783119388e-05</v>
+        <v>7.655618105262274e-05</v>
       </c>
       <c r="M7" t="n">
-        <v>12.17785263659296</v>
+        <v>12.14894085201724</v>
       </c>
       <c r="N7" t="n">
-        <v>223.8160252546224</v>
+        <v>223.2148531071074</v>
       </c>
       <c r="O7" t="n">
-        <v>14.96048211972537</v>
+        <v>14.94037660526358</v>
       </c>
       <c r="P7" t="n">
-        <v>262.2620654094819</v>
+        <v>262.2521075650509</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -29936,28 +30066,28 @@
         <v>0.0316</v>
       </c>
       <c r="I8" t="n">
-        <v>0.05364986430952111</v>
+        <v>0.05443919055040302</v>
       </c>
       <c r="J8" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K8" t="n">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L8" t="n">
-        <v>0.001014055599116048</v>
+        <v>0.001050937836473698</v>
       </c>
       <c r="M8" t="n">
-        <v>9.94679992939562</v>
+        <v>9.923094850786148</v>
       </c>
       <c r="N8" t="n">
-        <v>155.2571251540432</v>
+        <v>154.8369466342264</v>
       </c>
       <c r="O8" t="n">
-        <v>12.46022171367922</v>
+        <v>12.44334949417665</v>
       </c>
       <c r="P8" t="n">
-        <v>255.1587507143403</v>
+        <v>255.1510431028492</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -30014,28 +30144,28 @@
         <v>0.031</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1098979946973134</v>
+        <v>0.1096484811982664</v>
       </c>
       <c r="J9" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K9" t="n">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L9" t="n">
-        <v>0.004569716554307379</v>
+        <v>0.004579011552351187</v>
       </c>
       <c r="M9" t="n">
-        <v>9.3801587729027</v>
+        <v>9.355955742082296</v>
       </c>
       <c r="N9" t="n">
-        <v>143.5095669847068</v>
+        <v>143.1201108865092</v>
       </c>
       <c r="O9" t="n">
-        <v>11.97954786228207</v>
+        <v>11.9632817774434</v>
       </c>
       <c r="P9" t="n">
-        <v>249.8646667841791</v>
+        <v>249.8671032034843</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -30092,28 +30222,28 @@
         <v>0.0371</v>
       </c>
       <c r="I10" t="n">
-        <v>0.06386197035933686</v>
+        <v>0.06752736233851019</v>
       </c>
       <c r="J10" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K10" t="n">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="L10" t="n">
-        <v>0.001729396216594847</v>
+        <v>0.00194440851964206</v>
       </c>
       <c r="M10" t="n">
-        <v>8.988625387301067</v>
+        <v>8.979772671730966</v>
       </c>
       <c r="N10" t="n">
-        <v>127.2859873694574</v>
+        <v>127.0522903898895</v>
       </c>
       <c r="O10" t="n">
-        <v>11.28210917202353</v>
+        <v>11.27174744171859</v>
       </c>
       <c r="P10" t="n">
-        <v>263.6221419866426</v>
+        <v>263.5862912273032</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -30170,28 +30300,28 @@
         <v>0.0436</v>
       </c>
       <c r="I11" t="n">
-        <v>0.01997405554248925</v>
+        <v>0.01891918693849486</v>
       </c>
       <c r="J11" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K11" t="n">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0001901071834871093</v>
+        <v>0.0001727715197392676</v>
       </c>
       <c r="M11" t="n">
-        <v>8.365097078277149</v>
+        <v>8.324592936878105</v>
       </c>
       <c r="N11" t="n">
-        <v>114.9680061923479</v>
+        <v>114.3519293821927</v>
       </c>
       <c r="O11" t="n">
-        <v>10.72231347202402</v>
+        <v>10.69354615561146</v>
       </c>
       <c r="P11" t="n">
-        <v>282.3330077436156</v>
+        <v>282.3432716685326</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -30248,28 +30378,28 @@
         <v>0.0426</v>
       </c>
       <c r="I12" t="n">
-        <v>0.02511144760920673</v>
+        <v>0.02908883032968624</v>
       </c>
       <c r="J12" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K12" t="n">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0003027303526716985</v>
+        <v>0.0004112500706305866</v>
       </c>
       <c r="M12" t="n">
-        <v>8.328924613020224</v>
+        <v>8.302080025986895</v>
       </c>
       <c r="N12" t="n">
-        <v>110.6629434499862</v>
+        <v>110.1327730106211</v>
       </c>
       <c r="O12" t="n">
-        <v>10.51964559526537</v>
+        <v>10.49441627774604</v>
       </c>
       <c r="P12" t="n">
-        <v>311.6744016990634</v>
+        <v>311.6348539473584</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -30326,28 +30456,28 @@
         <v>0.0457</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.06285418998332454</v>
+        <v>-0.04649907792788539</v>
       </c>
       <c r="J13" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K13" t="n">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="L13" t="n">
-        <v>0.001943620943224644</v>
+        <v>0.001065054075216065</v>
       </c>
       <c r="M13" t="n">
-        <v>8.244664850771542</v>
+        <v>8.270376244375756</v>
       </c>
       <c r="N13" t="n">
-        <v>108.4778213493123</v>
+        <v>109.2412721151164</v>
       </c>
       <c r="O13" t="n">
-        <v>10.41526866428861</v>
+        <v>10.45185496048985</v>
       </c>
       <c r="P13" t="n">
-        <v>301.5128564420232</v>
+        <v>301.3502582201845</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -30404,28 +30534,28 @@
         <v>0.0453</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.1744609198422704</v>
+        <v>-0.1521598635332603</v>
       </c>
       <c r="J14" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K14" t="n">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="L14" t="n">
-        <v>0.01812325828570271</v>
+        <v>0.01341583531056745</v>
       </c>
       <c r="M14" t="n">
-        <v>7.445515851276139</v>
+        <v>7.499506917024914</v>
       </c>
       <c r="N14" t="n">
-        <v>89.7104967938765</v>
+        <v>93.31020811274135</v>
       </c>
       <c r="O14" t="n">
-        <v>9.471562531804164</v>
+        <v>9.659720912777003</v>
       </c>
       <c r="P14" t="n">
-        <v>297.9389183144431</v>
+        <v>297.7210232262593</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -30482,28 +30612,28 @@
         <v>0.0672</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.3064612888550992</v>
+        <v>-0.2904471321489575</v>
       </c>
       <c r="J15" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K15" t="n">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="L15" t="n">
-        <v>0.07877566634854682</v>
+        <v>0.06979994999888883</v>
       </c>
       <c r="M15" t="n">
-        <v>5.963773100669956</v>
+        <v>6.002464674793474</v>
       </c>
       <c r="N15" t="n">
-        <v>60.4336466120554</v>
+        <v>62.32009911846502</v>
       </c>
       <c r="O15" t="n">
-        <v>7.773908065577789</v>
+        <v>7.894308020242497</v>
       </c>
       <c r="P15" t="n">
-        <v>308.789628032642</v>
+        <v>308.6344703666476</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -30560,28 +30690,28 @@
         <v>0.0505</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.392332737238566</v>
+        <v>-0.3912487681745307</v>
       </c>
       <c r="J16" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K16" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L16" t="n">
-        <v>0.1122022848181269</v>
+        <v>0.1122911510441519</v>
       </c>
       <c r="M16" t="n">
-        <v>6.228719879308964</v>
+        <v>6.216095025048656</v>
       </c>
       <c r="N16" t="n">
-        <v>67.11817990580761</v>
+        <v>66.94211398033951</v>
       </c>
       <c r="O16" t="n">
-        <v>8.192568578035072</v>
+        <v>8.181816056374007</v>
       </c>
       <c r="P16" t="n">
-        <v>315.5146152957283</v>
+        <v>315.5040406532495</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -30638,28 +30768,28 @@
         <v>0.0557</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.3816210850686506</v>
+        <v>-0.3805236438203637</v>
       </c>
       <c r="J17" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K17" t="n">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="L17" t="n">
-        <v>0.1085682503259426</v>
+        <v>0.1086278445314391</v>
       </c>
       <c r="M17" t="n">
-        <v>6.376751204464288</v>
+        <v>6.365101079166712</v>
       </c>
       <c r="N17" t="n">
-        <v>64.83048183503861</v>
+        <v>64.66574159793217</v>
       </c>
       <c r="O17" t="n">
-        <v>8.051737814598697</v>
+        <v>8.041501203005081</v>
       </c>
       <c r="P17" t="n">
-        <v>310.6744560931537</v>
+        <v>310.6636812037061</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -30716,28 +30846,28 @@
         <v>0.0475</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.3140105934040053</v>
+        <v>-0.315501339451062</v>
       </c>
       <c r="J18" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K18" t="n">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="L18" t="n">
-        <v>0.07912392604938545</v>
+        <v>0.08028701355458023</v>
       </c>
       <c r="M18" t="n">
-        <v>6.179565996264516</v>
+        <v>6.16976561793261</v>
       </c>
       <c r="N18" t="n">
-        <v>62.06913526728842</v>
+        <v>61.91985175089128</v>
       </c>
       <c r="O18" t="n">
-        <v>7.878396744724679</v>
+        <v>7.868916809249623</v>
       </c>
       <c r="P18" t="n">
-        <v>317.9795084765468</v>
+        <v>317.994061438591</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -30794,28 +30924,28 @@
         <v>0.0408</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.2651296435494599</v>
+        <v>-0.2672502463544986</v>
       </c>
       <c r="J19" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K19" t="n">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="L19" t="n">
-        <v>0.05956266971288526</v>
+        <v>0.06117644780840159</v>
       </c>
       <c r="M19" t="n">
-        <v>6.20068217483091</v>
+        <v>6.183739491906333</v>
       </c>
       <c r="N19" t="n">
-        <v>61.03732312663093</v>
+        <v>60.75765950044381</v>
       </c>
       <c r="O19" t="n">
-        <v>7.812638678873542</v>
+        <v>7.794719975755628</v>
       </c>
       <c r="P19" t="n">
-        <v>320.0451499464521</v>
+        <v>320.0657340041909</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -30853,7 +30983,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T406"/>
+  <dimension ref="A1:T408"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68149,6 +68279,166 @@
         </is>
       </c>
     </row>
+    <row r="407">
+      <c r="A407" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-03 21:53:50+00:00</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr"/>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>-38.528810044166036,178.2884484563685</t>
+        </is>
+      </c>
+      <c r="D407" t="inlineStr"/>
+      <c r="E407" t="inlineStr">
+        <is>
+          <t>-38.529049070102964,178.28640798235804</t>
+        </is>
+      </c>
+      <c r="F407" t="inlineStr"/>
+      <c r="G407" t="inlineStr"/>
+      <c r="H407" t="inlineStr"/>
+      <c r="I407" t="inlineStr"/>
+      <c r="J407" t="inlineStr"/>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>-38.53273238339005,178.2830588114552</t>
+        </is>
+      </c>
+      <c r="L407" t="inlineStr">
+        <is>
+          <t>-38.53354431968865,178.2828034352297</t>
+        </is>
+      </c>
+      <c r="M407" t="inlineStr">
+        <is>
+          <t>-38.53431977064019,178.28266231410257</t>
+        </is>
+      </c>
+      <c r="N407" t="inlineStr">
+        <is>
+          <t>-38.53502928238802,178.2826478137724</t>
+        </is>
+      </c>
+      <c r="O407" t="inlineStr">
+        <is>
+          <t>-38.53571491424234,178.2824624054786</t>
+        </is>
+      </c>
+      <c r="P407" t="inlineStr"/>
+      <c r="Q407" t="inlineStr"/>
+      <c r="R407" t="inlineStr"/>
+      <c r="S407" t="inlineStr">
+        <is>
+          <t>-38.5384198041683,178.2814672388929</t>
+        </is>
+      </c>
+      <c r="T407" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-27 21:53:57+00:00</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>-38.52817636403485,178.2889545641675</t>
+        </is>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>-38.52857479888908,178.28821322525607</t>
+        </is>
+      </c>
+      <c r="D408" t="inlineStr">
+        <is>
+          <t>-38.528948404369046,178.2874470611956</t>
+        </is>
+      </c>
+      <c r="E408" t="inlineStr"/>
+      <c r="F408" t="inlineStr">
+        <is>
+          <t>-38.52981886191048,178.286037978112</t>
+        </is>
+      </c>
+      <c r="G408" t="inlineStr">
+        <is>
+          <t>-38.53031656043719,178.2853054835914</t>
+        </is>
+      </c>
+      <c r="H408" t="inlineStr">
+        <is>
+          <t>-38.53085584928413,178.2844956107285</t>
+        </is>
+      </c>
+      <c r="I408" t="inlineStr">
+        <is>
+          <t>-38.531454690220535,178.28384965097962</t>
+        </is>
+      </c>
+      <c r="J408" t="inlineStr">
+        <is>
+          <t>-38.532118808440494,178.28350176665907</t>
+        </is>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>-38.5327410485472,178.28307511210633</t>
+        </is>
+      </c>
+      <c r="L408" t="inlineStr">
+        <is>
+          <t>-38.53354392819701,178.28280215564476</t>
+        </is>
+      </c>
+      <c r="M408" t="inlineStr">
+        <is>
+          <t>-38.5343038883811,178.28251723709843</t>
+        </is>
+      </c>
+      <c r="N408" t="inlineStr">
+        <is>
+          <t>-38.53498487802219,178.28221502355</t>
+        </is>
+      </c>
+      <c r="O408" t="inlineStr">
+        <is>
+          <t>-38.53567782746902,178.2821377236065</t>
+        </is>
+      </c>
+      <c r="P408" t="inlineStr">
+        <is>
+          <t>-38.536363956225586,178.28203448299814</t>
+        </is>
+      </c>
+      <c r="Q408" t="inlineStr">
+        <is>
+          <t>-38.53703852787459,178.28179130888083</t>
+        </is>
+      </c>
+      <c r="R408" t="inlineStr">
+        <is>
+          <t>-38.53773195066808,178.28164884055892</t>
+        </is>
+      </c>
+      <c r="S408" t="inlineStr">
+        <is>
+          <t>-38.53842972432411,178.28153702753363</t>
+        </is>
+      </c>
+      <c r="T408" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0262/nzd0262.xlsx
+++ b/data/nzd0262/nzd0262.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T408"/>
+  <dimension ref="A1:T409"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25267,7 +25267,9 @@
       <c r="D408" t="n">
         <v>250</v>
       </c>
-      <c r="E408" t="inlineStr"/>
+      <c r="E408" t="n">
+        <v>249.4042857142857</v>
+      </c>
       <c r="F408" t="n">
         <v>256.4342857142857</v>
       </c>
@@ -25311,6 +25313,72 @@
         <v>314.4642857142857</v>
       </c>
       <c r="T408" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-28 21:54:11+00:00</t>
+        </is>
+      </c>
+      <c r="B409" t="n">
+        <v>268.3</v>
+      </c>
+      <c r="C409" t="n">
+        <v>253.6644444444445</v>
+      </c>
+      <c r="D409" t="n">
+        <v>249.19</v>
+      </c>
+      <c r="E409" t="n">
+        <v>250.38</v>
+      </c>
+      <c r="F409" t="n">
+        <v>250.53</v>
+      </c>
+      <c r="G409" t="n">
+        <v>257.46</v>
+      </c>
+      <c r="H409" t="n">
+        <v>251.5866666666666</v>
+      </c>
+      <c r="I409" t="n">
+        <v>243.0566666666666</v>
+      </c>
+      <c r="J409" t="n">
+        <v>269.42</v>
+      </c>
+      <c r="K409" t="n">
+        <v>275.38</v>
+      </c>
+      <c r="L409" t="n">
+        <v>309.65</v>
+      </c>
+      <c r="M409" t="n">
+        <v>295.98</v>
+      </c>
+      <c r="N409" t="n">
+        <v>293.09</v>
+      </c>
+      <c r="O409" t="n">
+        <v>295.4233333333333</v>
+      </c>
+      <c r="P409" t="n">
+        <v>300.1544444444444</v>
+      </c>
+      <c r="Q409" t="n">
+        <v>294.32</v>
+      </c>
+      <c r="R409" t="n">
+        <v>303.6044444444445</v>
+      </c>
+      <c r="S409" t="n">
+        <v>312.79</v>
+      </c>
+      <c r="T409" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -25327,7 +25395,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B409"/>
+  <dimension ref="A1:B410"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29425,6 +29493,16 @@
       </c>
       <c r="B409" t="n">
         <v>0.41</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>2025-08-28 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B410" t="n">
+        <v>0.5600000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -29598,28 +29676,28 @@
         <v>0.0569</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.2943185657519127</v>
+        <v>-0.3071954767051965</v>
       </c>
       <c r="J2" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="K2" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01690115059164876</v>
+        <v>0.01855649615287036</v>
       </c>
       <c r="M2" t="n">
-        <v>13.32036880419517</v>
+        <v>13.32414115422526</v>
       </c>
       <c r="N2" t="n">
-        <v>289.9985373602914</v>
+        <v>289.4335656013286</v>
       </c>
       <c r="O2" t="n">
-        <v>17.02934342129172</v>
+        <v>17.01274715033785</v>
       </c>
       <c r="P2" t="n">
-        <v>289.0758699380074</v>
+        <v>289.1932587827795</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -29676,28 +29754,28 @@
         <v>0.0558</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.3781915231897651</v>
+        <v>-0.3839143600416251</v>
       </c>
       <c r="J3" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="K3" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03452824200789062</v>
+        <v>0.03585276372524804</v>
       </c>
       <c r="M3" t="n">
-        <v>11.70016509822554</v>
+        <v>11.68499915742151</v>
       </c>
       <c r="N3" t="n">
-        <v>229.0760483771367</v>
+        <v>228.3930203751935</v>
       </c>
       <c r="O3" t="n">
-        <v>15.13525845095275</v>
+        <v>15.11267747208262</v>
       </c>
       <c r="P3" t="n">
-        <v>270.6665135397097</v>
+        <v>270.7193547205605</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -29754,28 +29832,28 @@
         <v>0.0463</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.259628318604518</v>
+        <v>-0.2625550967510237</v>
       </c>
       <c r="J4" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="K4" t="n">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01940626136750467</v>
+        <v>0.01999568861334233</v>
       </c>
       <c r="M4" t="n">
-        <v>10.87796716787108</v>
+        <v>10.85687196627591</v>
       </c>
       <c r="N4" t="n">
-        <v>187.2307183919135</v>
+        <v>186.6808844155854</v>
       </c>
       <c r="O4" t="n">
-        <v>13.68322763064013</v>
+        <v>13.66312132770493</v>
       </c>
       <c r="P4" t="n">
-        <v>260.1558976135273</v>
+        <v>260.1838323595994</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -29832,28 +29910,28 @@
         <v>0.0399</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.2894392112840489</v>
+        <v>-0.2955890224609328</v>
       </c>
       <c r="J5" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="K5" t="n">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02166142707235086</v>
+        <v>0.02284852456228603</v>
       </c>
       <c r="M5" t="n">
-        <v>11.45721651718087</v>
+        <v>11.42587527223098</v>
       </c>
       <c r="N5" t="n">
-        <v>205.1734998989564</v>
+        <v>204.2144846981927</v>
       </c>
       <c r="O5" t="n">
-        <v>14.32387866113632</v>
+        <v>14.29036335081067</v>
       </c>
       <c r="P5" t="n">
-        <v>262.821544991961</v>
+        <v>262.8819216247131</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -29910,28 +29988,28 @@
         <v>0.0378</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.1768046597867902</v>
+        <v>-0.1820307387174411</v>
       </c>
       <c r="J6" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="K6" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L6" t="n">
-        <v>0.009487958453511469</v>
+        <v>0.01010628341923814</v>
       </c>
       <c r="M6" t="n">
-        <v>10.70029881366879</v>
+        <v>10.69667871115263</v>
       </c>
       <c r="N6" t="n">
-        <v>181.4587609646727</v>
+        <v>181.1656458452289</v>
       </c>
       <c r="O6" t="n">
-        <v>13.47066297420705</v>
+        <v>13.45977881858498</v>
       </c>
       <c r="P6" t="n">
-        <v>264.069582163611</v>
+        <v>264.120733570012</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -29988,28 +30066,28 @@
         <v>0.0273</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.01762717160394596</v>
+        <v>-0.02009804456209375</v>
       </c>
       <c r="J7" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="K7" t="n">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L7" t="n">
-        <v>7.655618105262274e-05</v>
+        <v>0.0001001618558533757</v>
       </c>
       <c r="M7" t="n">
-        <v>12.14894085201724</v>
+        <v>12.12906510084035</v>
       </c>
       <c r="N7" t="n">
-        <v>223.2148531071074</v>
+        <v>222.6588080208972</v>
       </c>
       <c r="O7" t="n">
-        <v>14.94037660526358</v>
+        <v>14.92175619760949</v>
       </c>
       <c r="P7" t="n">
-        <v>262.2521075650509</v>
+        <v>262.2762076127031</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -30066,28 +30144,28 @@
         <v>0.0316</v>
       </c>
       <c r="I8" t="n">
-        <v>0.05443919055040302</v>
+        <v>0.05159636834343699</v>
       </c>
       <c r="J8" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="K8" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L8" t="n">
-        <v>0.001050937836473698</v>
+        <v>0.0009499822430418803</v>
       </c>
       <c r="M8" t="n">
-        <v>9.923094850786148</v>
+        <v>9.910335072476165</v>
       </c>
       <c r="N8" t="n">
-        <v>154.8369466342264</v>
+        <v>154.4811787666234</v>
       </c>
       <c r="O8" t="n">
-        <v>12.44334949417665</v>
+        <v>12.42904577055791</v>
       </c>
       <c r="P8" t="n">
-        <v>255.1510431028492</v>
+        <v>255.1789061504951</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -30144,28 +30222,28 @@
         <v>0.031</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1096484811982664</v>
+        <v>0.1041425694379489</v>
       </c>
       <c r="J9" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="K9" t="n">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L9" t="n">
-        <v>0.004579011552351187</v>
+        <v>0.00415256843028422</v>
       </c>
       <c r="M9" t="n">
-        <v>9.355955742082296</v>
+        <v>9.358710929273254</v>
       </c>
       <c r="N9" t="n">
-        <v>143.1201108865092</v>
+        <v>142.9834748214957</v>
       </c>
       <c r="O9" t="n">
-        <v>11.9632817774434</v>
+        <v>11.9575697707141</v>
       </c>
       <c r="P9" t="n">
-        <v>249.8671032034843</v>
+        <v>249.9210652344345</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -30222,28 +30300,28 @@
         <v>0.0371</v>
       </c>
       <c r="I10" t="n">
-        <v>0.06752736233851019</v>
+        <v>0.06985440000708883</v>
       </c>
       <c r="J10" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="K10" t="n">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="L10" t="n">
-        <v>0.00194440851964206</v>
+        <v>0.002093601214582019</v>
       </c>
       <c r="M10" t="n">
-        <v>8.979772671730966</v>
+        <v>8.965292671872245</v>
       </c>
       <c r="N10" t="n">
-        <v>127.0522903898895</v>
+        <v>126.7548816200897</v>
       </c>
       <c r="O10" t="n">
-        <v>11.27174744171859</v>
+        <v>11.25854704746974</v>
       </c>
       <c r="P10" t="n">
-        <v>263.5862912273032</v>
+        <v>263.5634481758412</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -30300,28 +30378,28 @@
         <v>0.0436</v>
       </c>
       <c r="I11" t="n">
-        <v>0.01891918693849486</v>
+        <v>0.01472778134632717</v>
       </c>
       <c r="J11" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="K11" t="n">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0001727715197392676</v>
+        <v>0.000105250742325036</v>
       </c>
       <c r="M11" t="n">
-        <v>8.324592936878105</v>
+        <v>8.321472190126224</v>
       </c>
       <c r="N11" t="n">
-        <v>114.3519293821927</v>
+        <v>114.1913554317042</v>
       </c>
       <c r="O11" t="n">
-        <v>10.69354615561146</v>
+        <v>10.68603553389676</v>
       </c>
       <c r="P11" t="n">
-        <v>282.3432716685326</v>
+        <v>282.3843198176061</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -30378,28 +30456,28 @@
         <v>0.0426</v>
       </c>
       <c r="I12" t="n">
-        <v>0.02908883032968624</v>
+        <v>0.02752861229129741</v>
       </c>
       <c r="J12" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="K12" t="n">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0004112500706305866</v>
+        <v>0.0003706738795159481</v>
       </c>
       <c r="M12" t="n">
-        <v>8.302080025986895</v>
+        <v>8.287461965642242</v>
       </c>
       <c r="N12" t="n">
-        <v>110.1327730106211</v>
+        <v>109.857516875339</v>
       </c>
       <c r="O12" t="n">
-        <v>10.49441627774604</v>
+        <v>10.48129366420668</v>
       </c>
       <c r="P12" t="n">
-        <v>311.6348539473584</v>
+        <v>311.6504456774397</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -30456,28 +30534,28 @@
         <v>0.0457</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.04649907792788539</v>
+        <v>-0.04883038085806414</v>
       </c>
       <c r="J13" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="K13" t="n">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L13" t="n">
-        <v>0.001065054075216065</v>
+        <v>0.001181434310587814</v>
       </c>
       <c r="M13" t="n">
-        <v>8.270376244375756</v>
+        <v>8.260306809488089</v>
       </c>
       <c r="N13" t="n">
-        <v>109.2412721151164</v>
+        <v>108.9949541415713</v>
       </c>
       <c r="O13" t="n">
-        <v>10.45185496048985</v>
+        <v>10.44006485332209</v>
       </c>
       <c r="P13" t="n">
-        <v>301.3502582201845</v>
+        <v>301.3735679088293</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -30534,28 +30612,28 @@
         <v>0.0453</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.1521598635332603</v>
+        <v>-0.1525206637263412</v>
       </c>
       <c r="J14" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="K14" t="n">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L14" t="n">
-        <v>0.01341583531056745</v>
+        <v>0.01356294195000673</v>
       </c>
       <c r="M14" t="n">
-        <v>7.499506917024914</v>
+        <v>7.481743347874743</v>
       </c>
       <c r="N14" t="n">
-        <v>93.31020811274135</v>
+        <v>93.06642709298423</v>
       </c>
       <c r="O14" t="n">
-        <v>9.659720912777003</v>
+        <v>9.647094230543425</v>
       </c>
       <c r="P14" t="n">
-        <v>297.7210232262593</v>
+        <v>297.7245713026316</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -30612,28 +30690,28 @@
         <v>0.0672</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.2904471321489575</v>
+        <v>-0.2935568599500069</v>
       </c>
       <c r="J15" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="K15" t="n">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="L15" t="n">
-        <v>0.06979994999888883</v>
+        <v>0.07153107120078517</v>
       </c>
       <c r="M15" t="n">
-        <v>6.002464674793474</v>
+        <v>6.002374147314103</v>
       </c>
       <c r="N15" t="n">
-        <v>62.32009911846502</v>
+        <v>62.23761692756272</v>
       </c>
       <c r="O15" t="n">
-        <v>7.894308020242497</v>
+        <v>7.889082134669579</v>
       </c>
       <c r="P15" t="n">
-        <v>308.6344703666476</v>
+        <v>308.6647996039088</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -30690,28 +30768,28 @@
         <v>0.0505</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.3912487681745307</v>
+        <v>-0.394180605130328</v>
       </c>
       <c r="J16" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="K16" t="n">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L16" t="n">
-        <v>0.1122911510441519</v>
+        <v>0.1143452743495337</v>
       </c>
       <c r="M16" t="n">
-        <v>6.216095025048656</v>
+        <v>6.214864760318076</v>
       </c>
       <c r="N16" t="n">
-        <v>66.94211398033951</v>
+        <v>66.82934768826277</v>
       </c>
       <c r="O16" t="n">
-        <v>8.181816056374007</v>
+        <v>8.17492187658468</v>
       </c>
       <c r="P16" t="n">
-        <v>315.5040406532495</v>
+        <v>315.532750228342</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -30768,28 +30846,28 @@
         <v>0.0557</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.3805236438203637</v>
+        <v>-0.3841516052366118</v>
       </c>
       <c r="J17" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="K17" t="n">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="L17" t="n">
-        <v>0.1086278445314391</v>
+        <v>0.1109573404215988</v>
       </c>
       <c r="M17" t="n">
-        <v>6.365101079166712</v>
+        <v>6.364005058165194</v>
       </c>
       <c r="N17" t="n">
-        <v>64.66574159793217</v>
+        <v>64.60130751973547</v>
       </c>
       <c r="O17" t="n">
-        <v>8.041501203005081</v>
+        <v>8.03749385814605</v>
       </c>
       <c r="P17" t="n">
-        <v>310.6636812037061</v>
+        <v>310.6994322079786</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -30846,28 +30924,28 @@
         <v>0.0475</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.315501339451062</v>
+        <v>-0.3190256148816585</v>
       </c>
       <c r="J18" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="K18" t="n">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="L18" t="n">
-        <v>0.08028701355458023</v>
+        <v>0.08232468603255161</v>
       </c>
       <c r="M18" t="n">
-        <v>6.16976561793261</v>
+        <v>6.169541847989731</v>
       </c>
       <c r="N18" t="n">
-        <v>61.91985175089128</v>
+        <v>61.85420464655194</v>
       </c>
       <c r="O18" t="n">
-        <v>7.868916809249623</v>
+        <v>7.864744410758174</v>
       </c>
       <c r="P18" t="n">
-        <v>317.994061438591</v>
+        <v>318.0285906154504</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -30924,28 +31002,28 @@
         <v>0.0408</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.2672502463544986</v>
+        <v>-0.2674280469586557</v>
       </c>
       <c r="J19" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="K19" t="n">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L19" t="n">
-        <v>0.06117644780840159</v>
+        <v>0.06164965032791037</v>
       </c>
       <c r="M19" t="n">
-        <v>6.183739491906333</v>
+        <v>6.166803736825342</v>
       </c>
       <c r="N19" t="n">
-        <v>60.75765950044381</v>
+        <v>60.58231404612617</v>
       </c>
       <c r="O19" t="n">
-        <v>7.794719975755628</v>
+        <v>7.783464141764011</v>
       </c>
       <c r="P19" t="n">
-        <v>320.0657340041909</v>
+        <v>320.0674732751672</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -30983,7 +31061,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T408"/>
+  <dimension ref="A1:T409"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68362,7 +68440,11 @@
           <t>-38.528948404369046,178.2874470611956</t>
         </is>
       </c>
-      <c r="E408" t="inlineStr"/>
+      <c r="E408" t="inlineStr">
+        <is>
+          <t>-38.52935668211898,178.2867155695344</t>
+        </is>
+      </c>
       <c r="F408" t="inlineStr">
         <is>
           <t>-38.52981886191048,178.286037978112</t>
@@ -68434,6 +68516,108 @@
         </is>
       </c>
       <c r="T408" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-28 21:54:11+00:00</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>-38.52825277605054,178.2890309717019</t>
+        </is>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>-38.5285618160847,178.28820024329642</t>
+        </is>
+      </c>
+      <c r="D409" t="inlineStr">
+        <is>
+          <t>-38.52894267871258,178.28744133594316</t>
+        </is>
+      </c>
+      <c r="E409" t="inlineStr">
+        <is>
+          <t>-38.529363579192555,178.28672246609344</t>
+        </is>
+      </c>
+      <c r="F409" t="inlineStr">
+        <is>
+          <t>-38.52977712585727,178.28599624530293</t>
+        </is>
+      </c>
+      <c r="G409" t="inlineStr">
+        <is>
+          <t>-38.53027573306335,178.28525871955347</t>
+        </is>
+      </c>
+      <c r="H409" t="inlineStr">
+        <is>
+          <t>-38.53081986231069,178.28443920950457</t>
+        </is>
+      </c>
+      <c r="I409" t="inlineStr">
+        <is>
+          <t>-38.53140819078579,178.28376217862657</t>
+        </is>
+      </c>
+      <c r="J409" t="inlineStr">
+        <is>
+          <t>-38.532107401274,178.28348030791145</t>
+        </is>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>-38.532703818580565,178.28300507619593</t>
+        </is>
+      </c>
+      <c r="L409" t="inlineStr">
+        <is>
+          <t>-38.53352396210321,178.2827368968287</t>
+        </is>
+      </c>
+      <c r="M409" t="inlineStr">
+        <is>
+          <t>-38.53428884969629,178.28237986735044</t>
+        </is>
+      </c>
+      <c r="N409" t="inlineStr">
+        <is>
+          <t>-38.53498292205003,178.2821959599091</t>
+        </is>
+      </c>
+      <c r="O409" t="inlineStr">
+        <is>
+          <t>-38.53567055747291,178.28207407828606</t>
+        </is>
+      </c>
+      <c r="P409" t="inlineStr">
+        <is>
+          <t>-38.536353303021855,178.2819549895331</t>
+        </is>
+      </c>
+      <c r="Q409" t="inlineStr">
+        <is>
+          <t>-38.537025145483845,178.28169716524425</t>
+        </is>
+      </c>
+      <c r="R409" t="inlineStr">
+        <is>
+          <t>-38.5377261772492,178.28160822476232</t>
+        </is>
+      </c>
+      <c r="S409" t="inlineStr">
+        <is>
+          <t>-38.53842704419405,178.28151817269426</t>
+        </is>
+      </c>
+      <c r="T409" t="inlineStr">
         <is>
           <t>L9</t>
         </is>

--- a/data/nzd0262/nzd0262.xlsx
+++ b/data/nzd0262/nzd0262.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T409"/>
+  <dimension ref="A1:T410"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25384,6 +25384,58 @@
         </is>
       </c>
     </row>
+    <row r="410">
+      <c r="A410" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-29 21:54:20+00:00</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr"/>
+      <c r="C410" t="inlineStr"/>
+      <c r="D410" t="inlineStr"/>
+      <c r="E410" t="inlineStr"/>
+      <c r="F410" t="inlineStr"/>
+      <c r="G410" t="inlineStr"/>
+      <c r="H410" t="inlineStr"/>
+      <c r="I410" t="n">
+        <v>259.6566666666667</v>
+      </c>
+      <c r="J410" t="n">
+        <v>271.2628571428572</v>
+      </c>
+      <c r="K410" t="n">
+        <v>288.9</v>
+      </c>
+      <c r="L410" t="n">
+        <v>316.56</v>
+      </c>
+      <c r="M410" t="n">
+        <v>302.85</v>
+      </c>
+      <c r="N410" t="n">
+        <v>299.46</v>
+      </c>
+      <c r="O410" t="n">
+        <v>302.2333333333333</v>
+      </c>
+      <c r="P410" t="n">
+        <v>300.8111111111111</v>
+      </c>
+      <c r="Q410" t="n">
+        <v>304.5</v>
+      </c>
+      <c r="R410" t="n">
+        <v>314.3511111111111</v>
+      </c>
+      <c r="S410" t="n">
+        <v>314.9428571428572</v>
+      </c>
+      <c r="T410" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -25395,7 +25447,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B410"/>
+  <dimension ref="A1:B411"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29503,6 +29555,16 @@
       </c>
       <c r="B410" t="n">
         <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>2025-09-29 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B411" t="n">
+        <v>0.32</v>
       </c>
     </row>
   </sheetData>
@@ -31061,7 +31123,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T409"/>
+  <dimension ref="A1:T410"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68623,6 +68685,80 @@
         </is>
       </c>
     </row>
+    <row r="410">
+      <c r="A410" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-29 21:54:20+00:00</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr"/>
+      <c r="C410" t="inlineStr"/>
+      <c r="D410" t="inlineStr"/>
+      <c r="E410" t="inlineStr"/>
+      <c r="F410" t="inlineStr"/>
+      <c r="G410" t="inlineStr"/>
+      <c r="H410" t="inlineStr"/>
+      <c r="I410" t="inlineStr">
+        <is>
+          <t>-38.53149181918523,178.2839194962629</t>
+        </is>
+      </c>
+      <c r="J410" t="inlineStr">
+        <is>
+          <t>-38.53211668534044,178.28349777275918</t>
+        </is>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>-38.53277193074335,178.28313320689972</t>
+        </is>
+      </c>
+      <c r="L410" t="inlineStr">
+        <is>
+          <t>-38.533546505516725,178.28281057957926</t>
+        </is>
+      </c>
+      <c r="M410" t="inlineStr">
+        <is>
+          <t>-38.5342973741197,178.28245773287108</t>
+        </is>
+      </c>
+      <c r="N410" t="inlineStr">
+        <is>
+          <t>-38.53499033842758,178.28226824288447</t>
+        </is>
+      </c>
+      <c r="O410" t="inlineStr">
+        <is>
+          <t>-38.535679366840846,178.2821512001079</t>
+        </is>
+      </c>
+      <c r="P410" t="inlineStr">
+        <is>
+          <t>-38.53635429577784,178.28196239739074</t>
+        </is>
+      </c>
+      <c r="Q410" t="inlineStr">
+        <is>
+          <t>-38.537041441255454,178.28181180426938</t>
+        </is>
+      </c>
+      <c r="R410" t="inlineStr">
+        <is>
+          <t>-38.53774338007341,178.2817292463372</t>
+        </is>
+      </c>
+      <c r="S410" t="inlineStr">
+        <is>
+          <t>-38.53843049040165,178.28154241692903</t>
+        </is>
+      </c>
+      <c r="T410" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0262/nzd0262.xlsx
+++ b/data/nzd0262/nzd0262.xlsx
@@ -29741,7 +29741,7 @@
         <v>-0.3071954767051965</v>
       </c>
       <c r="J2" t="n">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="K2" t="n">
         <v>215</v>
@@ -29819,7 +29819,7 @@
         <v>-0.3839143600416251</v>
       </c>
       <c r="J3" t="n">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="K3" t="n">
         <v>262</v>
@@ -29897,7 +29897,7 @@
         <v>-0.2625550967510237</v>
       </c>
       <c r="J4" t="n">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="K4" t="n">
         <v>309</v>
@@ -29975,7 +29975,7 @@
         <v>-0.2955890224609328</v>
       </c>
       <c r="J5" t="n">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="K5" t="n">
         <v>368</v>
@@ -30053,7 +30053,7 @@
         <v>-0.1820307387174411</v>
       </c>
       <c r="J6" t="n">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="K6" t="n">
         <v>350</v>
@@ -30131,7 +30131,7 @@
         <v>-0.02009804456209375</v>
       </c>
       <c r="J7" t="n">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="K7" t="n">
         <v>368</v>
@@ -30209,7 +30209,7 @@
         <v>0.05159636834343699</v>
       </c>
       <c r="J8" t="n">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="K8" t="n">
         <v>366</v>
@@ -30284,28 +30284,28 @@
         <v>0.031</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1041425694379489</v>
+        <v>0.1081241177146775</v>
       </c>
       <c r="J9" t="n">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="K9" t="n">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="L9" t="n">
-        <v>0.00415256843028422</v>
+        <v>0.004500220153491163</v>
       </c>
       <c r="M9" t="n">
-        <v>9.358710929273254</v>
+        <v>9.350815929970704</v>
       </c>
       <c r="N9" t="n">
-        <v>142.9834748214957</v>
+        <v>142.7285160699232</v>
       </c>
       <c r="O9" t="n">
-        <v>11.9575697707141</v>
+        <v>11.94690403702663</v>
       </c>
       <c r="P9" t="n">
-        <v>249.9210652344345</v>
+        <v>249.8819003415014</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -30362,28 +30362,28 @@
         <v>0.0371</v>
       </c>
       <c r="I10" t="n">
-        <v>0.06985440000708883</v>
+        <v>0.07320358388129701</v>
       </c>
       <c r="J10" t="n">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="K10" t="n">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L10" t="n">
-        <v>0.002093601214582019</v>
+        <v>0.002312410890338845</v>
       </c>
       <c r="M10" t="n">
-        <v>8.965292671872245</v>
+        <v>8.955013364236079</v>
       </c>
       <c r="N10" t="n">
-        <v>126.7548816200897</v>
+        <v>126.5065574665153</v>
       </c>
       <c r="O10" t="n">
-        <v>11.25854704746974</v>
+        <v>11.24751339036835</v>
       </c>
       <c r="P10" t="n">
-        <v>263.5634481758412</v>
+        <v>263.5304531984085</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -30440,28 +30440,28 @@
         <v>0.0436</v>
       </c>
       <c r="I11" t="n">
-        <v>0.01472778134632717</v>
+        <v>0.01816752246134904</v>
       </c>
       <c r="J11" t="n">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="K11" t="n">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="L11" t="n">
-        <v>0.000105250742325036</v>
+        <v>0.0001610518019050655</v>
       </c>
       <c r="M11" t="n">
-        <v>8.321472190126224</v>
+        <v>8.316013834091597</v>
       </c>
       <c r="N11" t="n">
-        <v>114.1913554317042</v>
+        <v>113.9833525462833</v>
       </c>
       <c r="O11" t="n">
-        <v>10.68603553389676</v>
+        <v>10.67629863512085</v>
       </c>
       <c r="P11" t="n">
-        <v>282.3843198176061</v>
+        <v>282.3505075562936</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -30518,28 +30518,28 @@
         <v>0.0426</v>
       </c>
       <c r="I12" t="n">
-        <v>0.02752861229129741</v>
+        <v>0.02990613076497639</v>
       </c>
       <c r="J12" t="n">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="K12" t="n">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0003706738795159481</v>
+        <v>0.0004401193761860434</v>
       </c>
       <c r="M12" t="n">
-        <v>8.287461965642242</v>
+        <v>8.275972482387182</v>
       </c>
       <c r="N12" t="n">
-        <v>109.857516875339</v>
+        <v>109.6102558355649</v>
       </c>
       <c r="O12" t="n">
-        <v>10.48129366420668</v>
+        <v>10.46949167035176</v>
       </c>
       <c r="P12" t="n">
-        <v>311.6504456774397</v>
+        <v>311.6266009062034</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -30596,28 +30596,28 @@
         <v>0.0457</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.04883038085806414</v>
+        <v>-0.04728689636530075</v>
       </c>
       <c r="J13" t="n">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="K13" t="n">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="L13" t="n">
-        <v>0.001181434310587814</v>
+        <v>0.001114934190837857</v>
       </c>
       <c r="M13" t="n">
-        <v>8.260306809488089</v>
+        <v>8.244936402507774</v>
       </c>
       <c r="N13" t="n">
-        <v>108.9949541415713</v>
+        <v>108.7243662409067</v>
       </c>
       <c r="O13" t="n">
-        <v>10.44006485332209</v>
+        <v>10.42709769019676</v>
       </c>
       <c r="P13" t="n">
-        <v>301.3735679088293</v>
+        <v>301.358078881412</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -30674,28 +30674,28 @@
         <v>0.0453</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.1525206637263412</v>
+        <v>-0.1493845666994096</v>
       </c>
       <c r="J14" t="n">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="K14" t="n">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="L14" t="n">
-        <v>0.01356294195000673</v>
+        <v>0.01308812709690543</v>
       </c>
       <c r="M14" t="n">
-        <v>7.481743347874743</v>
+        <v>7.475473393671979</v>
       </c>
       <c r="N14" t="n">
-        <v>93.06642709298423</v>
+        <v>92.9080043000863</v>
       </c>
       <c r="O14" t="n">
-        <v>9.647094230543425</v>
+        <v>9.638879826000856</v>
       </c>
       <c r="P14" t="n">
-        <v>297.7245713026316</v>
+        <v>297.6936174881536</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -30752,28 +30752,28 @@
         <v>0.0672</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.2935568599500069</v>
+        <v>-0.2928625633742042</v>
       </c>
       <c r="J15" t="n">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="K15" t="n">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="L15" t="n">
-        <v>0.07153107120078517</v>
+        <v>0.07163915734158433</v>
       </c>
       <c r="M15" t="n">
-        <v>6.002374147314103</v>
+        <v>5.989480890918366</v>
       </c>
       <c r="N15" t="n">
-        <v>62.23761692756272</v>
+        <v>62.07626536918784</v>
       </c>
       <c r="O15" t="n">
-        <v>7.889082134669579</v>
+        <v>7.878849241430365</v>
       </c>
       <c r="P15" t="n">
-        <v>308.6647996039088</v>
+        <v>308.6580028436763</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -30830,28 +30830,28 @@
         <v>0.0505</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.394180605130328</v>
+        <v>-0.3966860392226773</v>
       </c>
       <c r="J16" t="n">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="K16" t="n">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="L16" t="n">
-        <v>0.1143452743495337</v>
+        <v>0.1162316247684885</v>
       </c>
       <c r="M16" t="n">
-        <v>6.214864760318076</v>
+        <v>6.211406428556432</v>
       </c>
       <c r="N16" t="n">
-        <v>66.82934768826277</v>
+        <v>66.69797931865044</v>
       </c>
       <c r="O16" t="n">
-        <v>8.17492187658468</v>
+        <v>8.166883084668866</v>
       </c>
       <c r="P16" t="n">
-        <v>315.532750228342</v>
+        <v>315.5573761425506</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -30908,28 +30908,28 @@
         <v>0.0557</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.3841516052366118</v>
+        <v>-0.3819680873353234</v>
       </c>
       <c r="J17" t="n">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="K17" t="n">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L17" t="n">
-        <v>0.1109573404215988</v>
+        <v>0.1104215763089057</v>
       </c>
       <c r="M17" t="n">
-        <v>6.364005058165194</v>
+        <v>6.357933297334228</v>
       </c>
       <c r="N17" t="n">
-        <v>64.60130751973547</v>
+        <v>64.4677669916347</v>
       </c>
       <c r="O17" t="n">
-        <v>8.03749385814605</v>
+        <v>8.029182211884017</v>
       </c>
       <c r="P17" t="n">
-        <v>310.6994322079786</v>
+        <v>310.6778368142486</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -30986,28 +30986,28 @@
         <v>0.0475</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.3190256148816585</v>
+        <v>-0.3163500607675236</v>
       </c>
       <c r="J18" t="n">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="K18" t="n">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L18" t="n">
-        <v>0.08232468603255161</v>
+        <v>0.08149212829578489</v>
       </c>
       <c r="M18" t="n">
-        <v>6.169541847989731</v>
+        <v>6.165503562073993</v>
       </c>
       <c r="N18" t="n">
-        <v>61.85420464655194</v>
+        <v>61.74653689499929</v>
       </c>
       <c r="O18" t="n">
-        <v>7.864744410758174</v>
+        <v>7.857896467566832</v>
       </c>
       <c r="P18" t="n">
-        <v>318.0285906154504</v>
+        <v>318.0022828294567</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -31064,28 +31064,28 @@
         <v>0.0408</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.2674280469586557</v>
+        <v>-0.2663095054784536</v>
       </c>
       <c r="J19" t="n">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="K19" t="n">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L19" t="n">
-        <v>0.06164965032791037</v>
+        <v>0.06155433531341969</v>
       </c>
       <c r="M19" t="n">
-        <v>6.166803736825342</v>
+        <v>6.15393535683102</v>
       </c>
       <c r="N19" t="n">
-        <v>60.58231404612617</v>
+        <v>60.41782090666126</v>
       </c>
       <c r="O19" t="n">
-        <v>7.783464141764011</v>
+        <v>7.772890125729377</v>
       </c>
       <c r="P19" t="n">
-        <v>320.0674732751672</v>
+        <v>320.0564904485701</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">

--- a/data/nzd0262/nzd0262.xlsx
+++ b/data/nzd0262/nzd0262.xlsx
@@ -29729,13 +29729,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.05</v>
+        <v>0.045</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0441</v>
+        <v>0.034</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0569</v>
+        <v>0.0584</v>
       </c>
       <c r="I2" t="n">
         <v>-0.3071954767051961</v>
@@ -29807,13 +29807,13 @@
         <v>0.05887894992256473</v>
       </c>
       <c r="F3" t="n">
-        <v>0.045</v>
+        <v>0.05</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0393</v>
+        <v>0.0418</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0558</v>
+        <v>0.06619999999999999</v>
       </c>
       <c r="I3" t="n">
         <v>-0.3839168058808692</v>
@@ -29885,13 +29885,13 @@
         <v>0.1177578998448076</v>
       </c>
       <c r="F4" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0363</v>
+        <v>0.0436</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0463</v>
+        <v>0.06619999999999999</v>
       </c>
       <c r="I4" t="n">
         <v>-0.2625550967510238</v>
@@ -29963,13 +29963,13 @@
         <v>0.1766368497670505</v>
       </c>
       <c r="F5" t="n">
-        <v>0.035</v>
+        <v>0.04</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0335</v>
+        <v>0.0355</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0399</v>
+        <v>0.0419</v>
       </c>
       <c r="I5" t="n">
         <v>-0.295575942661183</v>
@@ -30041,13 +30041,13 @@
         <v>0.2355157996889715</v>
       </c>
       <c r="F6" t="n">
-        <v>0.035</v>
+        <v>0.04</v>
       </c>
       <c r="G6" t="n">
-        <v>0.032</v>
+        <v>0.0387</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0378</v>
+        <v>0.0464</v>
       </c>
       <c r="I6" t="n">
         <v>-0.1820198010935046</v>
@@ -30119,13 +30119,13 @@
         <v>0.2943947496126683</v>
       </c>
       <c r="F7" t="n">
-        <v>0.025</v>
+        <v>0.035</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0247</v>
+        <v>0.0311</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0273</v>
+        <v>0.0365</v>
       </c>
       <c r="I7" t="n">
         <v>-0.02009804456209367</v>
@@ -30197,13 +30197,13 @@
         <v>0.3525798310937375</v>
       </c>
       <c r="F8" t="n">
-        <v>0.03</v>
+        <v>0.035</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0292</v>
+        <v>0.0325</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0316</v>
+        <v>0.0409</v>
       </c>
       <c r="I8" t="n">
         <v>0.05161646896468035</v>
@@ -30275,13 +30275,13 @@
         <v>0.4114587810160519</v>
       </c>
       <c r="F9" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0288</v>
+        <v>0.0377</v>
       </c>
       <c r="H9" t="n">
-        <v>0.031</v>
+        <v>0.0463</v>
       </c>
       <c r="I9" t="n">
         <v>0.1081464222015088</v>
@@ -30353,13 +30353,13 @@
         <v>0.4703377309392227</v>
       </c>
       <c r="F10" t="n">
-        <v>0.035</v>
+        <v>0.045</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0343</v>
+        <v>0.0399</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0371</v>
+        <v>0.055</v>
       </c>
       <c r="I10" t="n">
         <v>0.07321420535702342</v>
@@ -30431,13 +30431,13 @@
         <v>0.5292166808610952</v>
       </c>
       <c r="F11" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0391</v>
+        <v>0.0547</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0436</v>
+        <v>0.06560000000000001</v>
       </c>
       <c r="I11" t="n">
         <v>0.01816752246134904</v>
@@ -30509,13 +30509,13 @@
         <v>0.588095630784266</v>
       </c>
       <c r="F12" t="n">
-        <v>0.04</v>
+        <v>0.055</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0393</v>
+        <v>0.0508</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0426</v>
+        <v>0.0587</v>
       </c>
       <c r="I12" t="n">
         <v>0.02990613076497639</v>
@@ -30587,13 +30587,13 @@
         <v>0.6467435344908378</v>
       </c>
       <c r="F13" t="n">
-        <v>0.04</v>
+        <v>0.065</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0378</v>
+        <v>0.0613</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0457</v>
+        <v>0.0741</v>
       </c>
       <c r="I13" t="n">
         <v>-0.04728689636530075</v>
@@ -30665,13 +30665,13 @@
         <v>0.7056224844132593</v>
       </c>
       <c r="F14" t="n">
-        <v>0.04</v>
+        <v>0.065</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0389</v>
+        <v>0.0619</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0453</v>
+        <v>0.0722</v>
       </c>
       <c r="I14" t="n">
         <v>-0.1493845666994096</v>
@@ -30746,10 +30746,10 @@
         <v>0.06</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0536</v>
+        <v>0.053</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0672</v>
+        <v>0.0659</v>
       </c>
       <c r="I15" t="n">
         <v>-0.2928815433854632</v>
@@ -30821,13 +30821,13 @@
         <v>0.8233631502322857</v>
       </c>
       <c r="F16" t="n">
-        <v>0.045</v>
+        <v>0.055</v>
       </c>
       <c r="G16" t="n">
-        <v>0.043</v>
+        <v>0.0528</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0505</v>
+        <v>0.0626</v>
       </c>
       <c r="I16" t="n">
         <v>-0.3966973627854848</v>
@@ -30899,13 +30899,13 @@
         <v>0.8822421001545422</v>
       </c>
       <c r="F17" t="n">
-        <v>0.05</v>
+        <v>0.065</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0484</v>
+        <v>0.0624</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0557</v>
+        <v>0.07290000000000001</v>
       </c>
       <c r="I17" t="n">
         <v>-0.3819680873353235</v>
@@ -30980,10 +30980,10 @@
         <v>0.045</v>
       </c>
       <c r="G18" t="n">
-        <v>0.043</v>
+        <v>0.0432</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0475</v>
+        <v>0.0487</v>
       </c>
       <c r="I18" t="n">
         <v>-0.3163617674942023</v>
@@ -31055,13 +31055,13 @@
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.035</v>
+        <v>0.04</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0346</v>
+        <v>0.0396</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0408</v>
+        <v>0.0406</v>
       </c>
       <c r="I19" t="n">
         <v>-0.2663228741783988</v>
